--- a/resultados_escritura_academica.xlsx
+++ b/resultados_escritura_academica.xlsx
@@ -7,14 +7,14 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="RESULTADOS_PC" sheetId="1" r:id="rId1"/>
+    <sheet name="RESULTADOS_EA" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="74">
   <si>
     <t>FACULTAD</t>
   </si>
@@ -22,136 +22,160 @@
     <t>INSCRITOS</t>
   </si>
   <si>
-    <t>SI EA</t>
-  </si>
-  <si>
-    <t>NO EA</t>
-  </si>
-  <si>
-    <t>PUNTAJE TOTAL PROMEDIO</t>
-  </si>
-  <si>
-    <t>PORCENTAJE DE LOGRO PROMEDIO</t>
-  </si>
-  <si>
-    <t>PORCENTAJE PROMEDIO DIM 1</t>
-  </si>
-  <si>
-    <t>PORCENTAJE PROMEDIO DIM 2</t>
-  </si>
-  <si>
-    <t>PORCENTAJE PROMEDIO DIM 3</t>
-  </si>
-  <si>
-    <t>PORCENTAJE PROMEDIO DIM 4</t>
-  </si>
-  <si>
-    <t>PORCENTAJE PROMEDIO DIM 5</t>
-  </si>
-  <si>
-    <t>PORCENTAJE PROMEDIO DIM 6</t>
-  </si>
-  <si>
-    <t>PORCENTAJE PROMEDIO DIM 7</t>
-  </si>
-  <si>
-    <t>PORCENTAJE PROMEDIO DIM 8</t>
-  </si>
-  <si>
-    <t>DIFERENCIA PUNTAJE TOTAL USACH</t>
-  </si>
-  <si>
-    <t>DIFERENCIA PORCENTAJE DE LOGRO USACH</t>
-  </si>
-  <si>
-    <t>DIFERENCIA PROMEDIO DIM 1 USACH</t>
-  </si>
-  <si>
-    <t>DIFERENCIA PROMEDIO DIM 2 USACH</t>
-  </si>
-  <si>
-    <t>DIFERENCIA PROMEDIO DIM 3 USACH</t>
-  </si>
-  <si>
-    <t>DIFERENCIA PROMEDIO DIM 4 USACH</t>
-  </si>
-  <si>
-    <t>DIFERENCIA PROMEDIO DIM 5 USACH</t>
-  </si>
-  <si>
-    <t>DIFERENCIA PROMEDIO DIM 6 USACH</t>
-  </si>
-  <si>
-    <t>DIFERENCIA PROMEDIO DIM 7 USACH</t>
-  </si>
-  <si>
-    <t>DIFERENCIA PROMEDIO DIM 8 USACH</t>
-  </si>
-  <si>
-    <t>PUNTAJE TOTAL PROMEDIO FACULTAD</t>
-  </si>
-  <si>
-    <t>PORCENTAJE DE LOGRO PROMEDIO FACULTAD</t>
-  </si>
-  <si>
-    <t>PORCENTAJE PROMEDIO DIM 1 FACULTAD</t>
-  </si>
-  <si>
-    <t>PORCENTAJE PROMEDIO DIM 2 FACULTAD</t>
-  </si>
-  <si>
-    <t>PORCENTAJE PROMEDIO DIM 3 FACULTAD</t>
-  </si>
-  <si>
-    <t>PORCENTAJE PROMEDIO DIM 4 FACULTAD</t>
-  </si>
-  <si>
-    <t>PORCENTAJE PROMEDIO DIM 5 FACULTAD</t>
-  </si>
-  <si>
-    <t>PORCENTAJE PROMEDIO DIM 6 FACULTAD</t>
-  </si>
-  <si>
-    <t>PORCENTAJE PROMEDIO DIM 7 FACULTAD</t>
-  </si>
-  <si>
-    <t>PORCENTAJE PROMEDIO DIM 8 FACULTAD</t>
-  </si>
-  <si>
-    <t>DIFERENCIA PUNTAJE TOTAL FACULTAD</t>
-  </si>
-  <si>
-    <t>DIFERENCIA PORCENTAJE DE LOGRO FACULTAD</t>
-  </si>
-  <si>
-    <t>DIFERENCIA PROMEDIO DIM 1 FACULTAD</t>
-  </si>
-  <si>
-    <t>DIFERENCIA PROMEDIO DIM 2 FACULTAD</t>
-  </si>
-  <si>
-    <t>DIFERENCIA PROMEDIO DIM 3 FACULTAD</t>
-  </si>
-  <si>
-    <t>DIFERENCIA PROMEDIO DIM 4 FACULTAD</t>
-  </si>
-  <si>
-    <t>DIFERENCIA PROMEDIO DIM 5 FACULTAD</t>
-  </si>
-  <si>
-    <t>DIFERENCIA PROMEDIO DIM 6 FACULTAD</t>
-  </si>
-  <si>
-    <t>DIFERENCIA PROMEDIO DIM 7 FACULTAD</t>
-  </si>
-  <si>
-    <t>DIFERENCIA PROMEDIO DIM 8 FACULTAD</t>
-  </si>
-  <si>
-    <t>ESTUDIANTES CON PUNTAJE BAJO</t>
-  </si>
-  <si>
-    <t>PORCENTAJE ESTUDIANTES CON PUNTAJE BAJO</t>
+    <t>SI_EA</t>
+  </si>
+  <si>
+    <t>NO_EA</t>
+  </si>
+  <si>
+    <t>PUNTAJE_TOTAL_PROMEDIO</t>
+  </si>
+  <si>
+    <t>PORCENTAJE_DE_LOGRO_PROMEDIO</t>
+  </si>
+  <si>
+    <t>PORCENTAJE_PROMEDIO_DIM_1</t>
+  </si>
+  <si>
+    <t>PORCENTAJE_PROMEDIO_DIM_2</t>
+  </si>
+  <si>
+    <t>PORCENTAJE_PROMEDIO_DIM_3</t>
+  </si>
+  <si>
+    <t>PORCENTAJE_PROMEDIO_DIM_4</t>
+  </si>
+  <si>
+    <t>PORCENTAJE_PROMEDIO_DIM_5</t>
+  </si>
+  <si>
+    <t>PORCENTAJE_PROMEDIO_DIM_6</t>
+  </si>
+  <si>
+    <t>PORCENTAJE_PROMEDIO_DIM_7</t>
+  </si>
+  <si>
+    <t>PORCENTAJE_PROMEDIO_DIM_8</t>
+  </si>
+  <si>
+    <t>PORCENTAJE_PROMEDIO_DIM_1_USACH</t>
+  </si>
+  <si>
+    <t>PORCENTAJE_PROMEDIO_DIM_2_USACH</t>
+  </si>
+  <si>
+    <t>PORCENTAJE_PROMEDIO_DIM_3_USACH</t>
+  </si>
+  <si>
+    <t>PORCENTAJE_PROMEDIO_DIM_4_USACH</t>
+  </si>
+  <si>
+    <t>PORCENTAJE_PROMEDIO_DIM_5_USACH</t>
+  </si>
+  <si>
+    <t>PORCENTAJE_PROMEDIO_DIM_6_USACH</t>
+  </si>
+  <si>
+    <t>PORCENTAJE_PROMEDIO_DIM_7_USACH</t>
+  </si>
+  <si>
+    <t>PORCENTAJE_PROMEDIO_DIM_8_USACH</t>
+  </si>
+  <si>
+    <t>DIFERENCIA_PUNTAJE_TOTAL_USACH</t>
+  </si>
+  <si>
+    <t>DIFERENCIA_PORCENTAJE_DE_LOGRO_USACH</t>
+  </si>
+  <si>
+    <t>DIFERENCIA_PROMEDIO_DIM_1_USACH</t>
+  </si>
+  <si>
+    <t>DIFERENCIA_PROMEDIO_DIM_2_USACH</t>
+  </si>
+  <si>
+    <t>DIFERENCIA_PROMEDIO_DIM_3_USACH</t>
+  </si>
+  <si>
+    <t>DIFERENCIA_PROMEDIO_DIM_4_USACH</t>
+  </si>
+  <si>
+    <t>DIFERENCIA_PROMEDIO_DIM_5_USACH</t>
+  </si>
+  <si>
+    <t>DIFERENCIA_PROMEDIO_DIM_6_USACH</t>
+  </si>
+  <si>
+    <t>DIFERENCIA_PROMEDIO_DIM_7_USACH</t>
+  </si>
+  <si>
+    <t>DIFERENCIA_PROMEDIO_DIM_8_USACH</t>
+  </si>
+  <si>
+    <t>PUNTAJE_TOTAL_PROMEDIO_FAC</t>
+  </si>
+  <si>
+    <t>PORCENTAJE_DE_LOGRO_PROMEDIO_FAC</t>
+  </si>
+  <si>
+    <t>PORCENTAJE_PROMEDIO_DIM_1_FAC</t>
+  </si>
+  <si>
+    <t>PORCENTAJE_PROMEDIO_DIM_2_FAC</t>
+  </si>
+  <si>
+    <t>PORCENTAJE_PROMEDIO_DIM_3_FAC</t>
+  </si>
+  <si>
+    <t>PORCENTAJE_PROMEDIO_DIM_4_FAC</t>
+  </si>
+  <si>
+    <t>PORCENTAJE_PROMEDIO_DIM_5_FAC</t>
+  </si>
+  <si>
+    <t>PORCENTAJE_PROMEDIO_DIM_6_FAC</t>
+  </si>
+  <si>
+    <t>PORCENTAJE_PROMEDIO_DIM_7_FAC</t>
+  </si>
+  <si>
+    <t>PORCENTAJE_PROMEDIO_DIM_8_FAC</t>
+  </si>
+  <si>
+    <t>DIFERENCIA_PUNTAJE_TOTAL_FAC</t>
+  </si>
+  <si>
+    <t>DIFERENCIA_PORCENTAJE_DE_LOGRO_FAC</t>
+  </si>
+  <si>
+    <t>DIFERENCIA_PROMEDIO_DIM_1_FAC</t>
+  </si>
+  <si>
+    <t>DIFERENCIA_PROMEDIO_DIM_2_FAC</t>
+  </si>
+  <si>
+    <t>DIFERENCIA_PROMEDIO_DIM_3_FAC</t>
+  </si>
+  <si>
+    <t>DIFERENCIA_PROMEDIO_DIM_4_FAC</t>
+  </si>
+  <si>
+    <t>DIFERENCIA_PROMEDIO_DIM_5_FAC</t>
+  </si>
+  <si>
+    <t>DIFERENCIA_PROMEDIO_DIM_6_FAC</t>
+  </si>
+  <si>
+    <t>DIFERENCIA_PROMEDIO_DIM_7_FAC</t>
+  </si>
+  <si>
+    <t>DIFERENCIA_PROMEDIO_DIM_8_FAC</t>
+  </si>
+  <si>
+    <t>ESTUDIANTES_CON_PUNTAJE_BAJO</t>
+  </si>
+  <si>
+    <t>PORCENTAJE_ESTUDIANTES_CON_PUNTAJE_BAJO</t>
   </si>
   <si>
     <t>CARRERA</t>
@@ -160,6 +184,9 @@
     <t>ADMINISTRACIÓN PÚBLICA</t>
   </si>
   <si>
+    <t>ARQUITECTURA</t>
+  </si>
+  <si>
     <t>BACHILLERATO EN CIENCIAS Y HUMANIDADES</t>
   </si>
   <si>
@@ -169,9 +196,6 @@
     <t>CONTADOR PÚBLICO Y AUDITOR (VESPERTINO)</t>
   </si>
   <si>
-    <t>DERECHO</t>
-  </si>
-  <si>
     <t>INGENIERÍA COMERCIAL</t>
   </si>
   <si>
@@ -205,10 +229,10 @@
     <t>FACULTAD DE ADMINISTRACIÓN Y ECONOMÍA</t>
   </si>
   <si>
+    <t>ESCUELA DE ARQUITECTURA</t>
+  </si>
+  <si>
     <t>PROGRAMA DE BACHILLERATO</t>
-  </si>
-  <si>
-    <t>FACULTAD DE DERECHO</t>
   </si>
   <si>
     <t>FACULTAD DE HUMANIDADES</t>
@@ -569,15 +593,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AU16"/>
+  <dimension ref="A1:BC16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:47">
+    <row r="1" spans="1:55">
       <c r="A1" s="1" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -717,279 +741,327 @@
       <c r="AU1" s="1" t="s">
         <v>45</v>
       </c>
+      <c r="AV1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AW1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AX1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AY1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AZ1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="BA1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BB1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BC1" s="1" t="s">
+        <v>53</v>
+      </c>
     </row>
-    <row r="2" spans="1:47">
+    <row r="2" spans="1:55">
       <c r="A2" s="1" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="C2">
         <v>220</v>
       </c>
       <c r="D2">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="E2">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="F2">
-        <v>15.69811320754717</v>
+        <v>16.17073170731707</v>
       </c>
       <c r="G2">
-        <v>0.4905660377358491</v>
+        <v>0.5053353658536586</v>
       </c>
       <c r="H2">
-        <v>0.4976415094339622</v>
+        <v>0.501219512195122</v>
       </c>
       <c r="I2">
-        <v>0.5047169811320755</v>
+        <v>0.5097560975609756</v>
       </c>
       <c r="J2">
-        <v>0.5224056603773585</v>
+        <v>0.524390243902439</v>
       </c>
       <c r="K2">
-        <v>0.4693396226415094</v>
+        <v>0.5353658536585366</v>
       </c>
       <c r="L2">
-        <v>0.482311320754717</v>
+        <v>0.4853658536585366</v>
       </c>
       <c r="M2">
-        <v>0.4858490566037736</v>
+        <v>0.5109756097560976</v>
       </c>
       <c r="N2">
-        <v>0.4893867924528302</v>
+        <v>0.4865853658536585</v>
       </c>
       <c r="O2">
-        <v>0.4728773584905661</v>
+        <v>0.4890243902439024</v>
       </c>
       <c r="P2">
-        <v>-0.3382724807487669</v>
+        <v>0.5015625</v>
       </c>
       <c r="Q2">
-        <v>-0.01057101502339897</v>
+        <v>0.5034375</v>
       </c>
       <c r="R2">
-        <v>0.006889538542512896</v>
+        <v>0.51171875</v>
       </c>
       <c r="S2">
-        <v>-0.01044372232456481</v>
+        <v>0.49953125</v>
       </c>
       <c r="T2">
-        <v>0.02270887444649128</v>
+        <v>0.51</v>
       </c>
       <c r="U2">
-        <v>-0.01792538645491265</v>
+        <v>0.50515625</v>
       </c>
       <c r="V2">
-        <v>-0.02360135359337273</v>
+        <v>0.50328125</v>
       </c>
       <c r="W2">
-        <v>-0.02658272023067149</v>
+        <v>0.50109375</v>
       </c>
       <c r="X2">
-        <v>-0.01076481458173623</v>
+        <v>0.02760670731707293</v>
       </c>
       <c r="Y2">
-        <v>-0.02484853599093789</v>
+        <v>0.0008627096036585291</v>
       </c>
       <c r="Z2">
-        <v>15.84964200477327</v>
+        <v>-0.0003429878048780699</v>
       </c>
       <c r="AA2">
-        <v>0.4953013126491647</v>
+        <v>0.006318597560975636</v>
       </c>
       <c r="AB2">
-        <v>0.4832935560859188</v>
+        <v>0.01267149390243905</v>
       </c>
       <c r="AC2">
-        <v>0.5074582338902148</v>
+        <v>0.03583460365853663</v>
       </c>
       <c r="AD2">
-        <v>0.5047732696897375</v>
+        <v>-0.02463414634146344</v>
       </c>
       <c r="AE2">
-        <v>0.4823985680190931</v>
+        <v>0.005819359756097597</v>
       </c>
       <c r="AF2">
-        <v>0.5014916467780429</v>
+        <v>-0.01669588414634149</v>
       </c>
       <c r="AG2">
-        <v>0.5023866348448688</v>
+        <v>-0.01206935975609758</v>
       </c>
       <c r="AH2">
-        <v>0.4877684964200477</v>
+        <v>16.13120567375887</v>
       </c>
       <c r="AI2">
-        <v>0.4928400954653938</v>
+        <v>0.5041001773049646</v>
       </c>
       <c r="AJ2">
-        <v>-0.1515287972260992</v>
+        <v>0.5091607565011821</v>
       </c>
       <c r="AK2">
-        <v>-0.004735274913315601</v>
+        <v>0.5011820330969267</v>
       </c>
       <c r="AL2">
-        <v>0.0143479533480434</v>
+        <v>0.5070921985815603</v>
       </c>
       <c r="AM2">
-        <v>-0.002741252758139301</v>
+        <v>0.4979314420803783</v>
       </c>
       <c r="AN2">
-        <v>0.01763239068762101</v>
+        <v>0.5079787234042553</v>
       </c>
       <c r="AO2">
-        <v>-0.01305894537758368</v>
+        <v>0.5011820330969267</v>
       </c>
       <c r="AP2">
-        <v>-0.01918032602332592</v>
+        <v>0.49822695035461</v>
       </c>
       <c r="AQ2">
-        <v>-0.0165375782410952</v>
+        <v>0.5100472813238771</v>
       </c>
       <c r="AR2">
-        <v>0.001618296032782462</v>
+        <v>0.03952603355820727</v>
       </c>
       <c r="AS2">
-        <v>-0.01996273697482775</v>
+        <v>0.001235188548693977</v>
       </c>
       <c r="AT2">
-        <v>176</v>
+        <v>-0.007941244306060136</v>
       </c>
       <c r="AU2">
-        <v>0.8</v>
+        <v>0.008574064464048958</v>
+      </c>
+      <c r="AV2">
+        <v>0.01729804532087875</v>
+      </c>
+      <c r="AW2">
+        <v>0.03743441157815836</v>
+      </c>
+      <c r="AX2">
+        <v>-0.02261286974571874</v>
+      </c>
+      <c r="AY2">
+        <v>0.009793576659170911</v>
+      </c>
+      <c r="AZ2">
+        <v>-0.01164158450095143</v>
+      </c>
+      <c r="BA2">
+        <v>-0.02102289107997468</v>
+      </c>
+      <c r="BB2">
+        <v>165</v>
+      </c>
+      <c r="BC2">
+        <v>0.75</v>
       </c>
     </row>
-    <row r="3" spans="1:47">
+    <row r="3" spans="1:55">
       <c r="A3" s="1" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="B3" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="C3">
-        <v>159</v>
+        <v>91</v>
       </c>
       <c r="D3">
-        <v>152</v>
+        <v>86</v>
       </c>
       <c r="E3">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F3">
-        <v>15.93421052631579</v>
+        <v>15.67441860465116</v>
       </c>
       <c r="G3">
-        <v>0.4979440789473684</v>
+        <v>0.4898255813953488</v>
       </c>
       <c r="H3">
-        <v>0.5197368421052632</v>
+        <v>0.4156976744186047</v>
       </c>
       <c r="I3">
-        <v>0.4884868421052632</v>
+        <v>0.5116279069767442</v>
       </c>
       <c r="J3">
-        <v>0.4375</v>
+        <v>0.4854651162790697</v>
       </c>
       <c r="K3">
-        <v>0.4934210526315789</v>
+        <v>0.4622093023255814</v>
       </c>
       <c r="L3">
-        <v>0.5148026315789473</v>
+        <v>0.5377906976744186</v>
       </c>
       <c r="M3">
-        <v>0.5345394736842105</v>
+        <v>0.4970930232558139</v>
       </c>
       <c r="N3">
-        <v>0.4786184210526316</v>
+        <v>0.4854651162790697</v>
       </c>
       <c r="O3">
-        <v>0.5164473684210527</v>
+        <v>0.5232558139534884</v>
       </c>
       <c r="P3">
-        <v>-0.1021751619801474</v>
+        <v>0.5015625</v>
       </c>
       <c r="Q3">
-        <v>-0.003192973811879607</v>
+        <v>0.5034375</v>
       </c>
       <c r="R3">
-        <v>0.02898487121381382</v>
+        <v>0.51171875</v>
       </c>
       <c r="S3">
-        <v>-0.02667386135137717</v>
+        <v>0.49953125</v>
       </c>
       <c r="T3">
-        <v>-0.06219678593086719</v>
+        <v>0.51</v>
       </c>
       <c r="U3">
-        <v>0.006156043535156863</v>
+        <v>0.50515625</v>
       </c>
       <c r="V3">
-        <v>0.008889957230857615</v>
+        <v>0.50328125</v>
       </c>
       <c r="W3">
-        <v>0.02210769684976543</v>
+        <v>0.50109375</v>
       </c>
       <c r="X3">
-        <v>-0.02153318598193482</v>
+        <v>-0.4687063953488391</v>
       </c>
       <c r="Y3">
-        <v>0.01872147393954871</v>
+        <v>-0.01464707485465122</v>
       </c>
       <c r="Z3">
-        <v>15.93421052631579</v>
+        <v>-0.08586482558139535</v>
       </c>
       <c r="AA3">
-        <v>0.4979440789473684</v>
+        <v>0.008190406976744224</v>
       </c>
       <c r="AB3">
-        <v>0.5197368421052632</v>
+        <v>-0.02625363372093026</v>
       </c>
       <c r="AC3">
-        <v>0.4884868421052632</v>
+        <v>-0.0373219476744186</v>
       </c>
       <c r="AD3">
-        <v>0.4375</v>
+        <v>0.02779069767441855</v>
       </c>
       <c r="AE3">
-        <v>0.4934210526315789</v>
+        <v>-0.008063226744186025</v>
       </c>
       <c r="AF3">
-        <v>0.5148026315789473</v>
+        <v>-0.01781613372093027</v>
       </c>
       <c r="AG3">
-        <v>0.5345394736842105</v>
+        <v>0.02216206395348841</v>
       </c>
       <c r="AH3">
-        <v>0.4786184210526316</v>
+        <v>15.67441860465116</v>
       </c>
       <c r="AI3">
-        <v>0.5164473684210527</v>
+        <v>0.4898255813953488</v>
       </c>
       <c r="AJ3">
-        <v>0</v>
+        <v>0.4156976744186047</v>
       </c>
       <c r="AK3">
-        <v>0</v>
+        <v>0.5116279069767442</v>
       </c>
       <c r="AL3">
-        <v>0</v>
+        <v>0.4854651162790697</v>
       </c>
       <c r="AM3">
-        <v>0</v>
+        <v>0.4622093023255814</v>
       </c>
       <c r="AN3">
-        <v>0</v>
+        <v>0.5377906976744186</v>
       </c>
       <c r="AO3">
-        <v>0</v>
+        <v>0.4970930232558139</v>
       </c>
       <c r="AP3">
-        <v>0</v>
+        <v>0.4854651162790697</v>
       </c>
       <c r="AQ3">
-        <v>0</v>
+        <v>0.5232558139534884</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -998,590 +1070,710 @@
         <v>0</v>
       </c>
       <c r="AT3">
-        <v>121</v>
+        <v>0</v>
       </c>
       <c r="AU3">
-        <v>0.7610062893081762</v>
+        <v>0</v>
+      </c>
+      <c r="AV3">
+        <v>0</v>
+      </c>
+      <c r="AW3">
+        <v>0</v>
+      </c>
+      <c r="AX3">
+        <v>0</v>
+      </c>
+      <c r="AY3">
+        <v>0</v>
+      </c>
+      <c r="AZ3">
+        <v>0</v>
+      </c>
+      <c r="BA3">
+        <v>0</v>
+      </c>
+      <c r="BB3">
+        <v>73</v>
+      </c>
+      <c r="BC3">
+        <v>0.8021978021978022</v>
       </c>
     </row>
-    <row r="4" spans="1:47">
+    <row r="4" spans="1:55">
       <c r="A4" s="1" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="B4" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="C4">
+        <v>159</v>
+      </c>
+      <c r="D4">
+        <v>153</v>
+      </c>
+      <c r="E4">
+        <v>6</v>
+      </c>
+      <c r="F4">
+        <v>16.27450980392157</v>
+      </c>
+      <c r="G4">
+        <v>0.508578431372549</v>
+      </c>
+      <c r="H4">
+        <v>0.488562091503268</v>
+      </c>
+      <c r="I4">
+        <v>0.5049019607843137</v>
+      </c>
+      <c r="J4">
+        <v>0.5571895424836601</v>
+      </c>
+      <c r="K4">
+        <v>0.5310457516339869</v>
+      </c>
+      <c r="L4">
+        <v>0.5179738562091504</v>
+      </c>
+      <c r="M4">
+        <v>0.5081699346405228</v>
+      </c>
+      <c r="N4">
+        <v>0.4852941176470588</v>
+      </c>
+      <c r="O4">
+        <v>0.4754901960784313</v>
+      </c>
+      <c r="P4">
+        <v>0.5015625</v>
+      </c>
+      <c r="Q4">
+        <v>0.5034375</v>
+      </c>
+      <c r="R4">
+        <v>0.51171875</v>
+      </c>
+      <c r="S4">
+        <v>0.49953125</v>
+      </c>
+      <c r="T4">
+        <v>0.51</v>
+      </c>
+      <c r="U4">
+        <v>0.50515625</v>
+      </c>
+      <c r="V4">
+        <v>0.50328125</v>
+      </c>
+      <c r="W4">
+        <v>0.50109375</v>
+      </c>
+      <c r="X4">
+        <v>0.1313848039215664</v>
+      </c>
+      <c r="Y4">
+        <v>0.004105775122548949</v>
+      </c>
+      <c r="Z4">
+        <v>-0.01300040849673206</v>
+      </c>
+      <c r="AA4">
+        <v>0.001464460784313726</v>
+      </c>
+      <c r="AB4">
+        <v>0.04547079248366015</v>
+      </c>
+      <c r="AC4">
+        <v>0.03151450163398695</v>
+      </c>
+      <c r="AD4">
+        <v>0.007973856209150365</v>
+      </c>
+      <c r="AE4">
+        <v>0.003013684640522873</v>
+      </c>
+      <c r="AF4">
+        <v>-0.01798713235294119</v>
+      </c>
+      <c r="AG4">
+        <v>-0.02560355392156866</v>
+      </c>
+      <c r="AH4">
+        <v>16.27450980392157</v>
+      </c>
+      <c r="AI4">
+        <v>0.508578431372549</v>
+      </c>
+      <c r="AJ4">
+        <v>0.488562091503268</v>
+      </c>
+      <c r="AK4">
+        <v>0.5049019607843137</v>
+      </c>
+      <c r="AL4">
+        <v>0.5571895424836601</v>
+      </c>
+      <c r="AM4">
+        <v>0.5310457516339869</v>
+      </c>
+      <c r="AN4">
+        <v>0.5179738562091504</v>
+      </c>
+      <c r="AO4">
+        <v>0.5081699346405228</v>
+      </c>
+      <c r="AP4">
+        <v>0.4852941176470588</v>
+      </c>
+      <c r="AQ4">
+        <v>0.4754901960784313</v>
+      </c>
+      <c r="AR4">
+        <v>0</v>
+      </c>
+      <c r="AS4">
+        <v>0</v>
+      </c>
+      <c r="AT4">
+        <v>0</v>
+      </c>
+      <c r="AU4">
+        <v>0</v>
+      </c>
+      <c r="AV4">
+        <v>0</v>
+      </c>
+      <c r="AW4">
+        <v>0</v>
+      </c>
+      <c r="AX4">
+        <v>0</v>
+      </c>
+      <c r="AY4">
+        <v>0</v>
+      </c>
+      <c r="AZ4">
+        <v>0</v>
+      </c>
+      <c r="BA4">
+        <v>0</v>
+      </c>
+      <c r="BB4">
+        <v>124</v>
+      </c>
+      <c r="BC4">
+        <v>0.779874213836478</v>
+      </c>
+    </row>
+    <row r="5" spans="1:55">
+      <c r="A5" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C5">
         <v>255</v>
       </c>
-      <c r="D4">
-        <v>238</v>
-      </c>
-      <c r="E4">
-        <v>17</v>
-      </c>
-      <c r="F4">
-        <v>15.88235294117647</v>
-      </c>
-      <c r="G4">
-        <v>0.4963235294117647</v>
-      </c>
-      <c r="H4">
-        <v>0.4842436974789916</v>
-      </c>
-      <c r="I4">
-        <v>0.5042016806722689</v>
-      </c>
-      <c r="J4">
-        <v>0.476890756302521</v>
-      </c>
-      <c r="K4">
-        <v>0.5010504201680672</v>
-      </c>
-      <c r="L4">
-        <v>0.486344537815126</v>
-      </c>
-      <c r="M4">
-        <v>0.5147058823529411</v>
-      </c>
-      <c r="N4">
-        <v>0.4800420168067227</v>
-      </c>
-      <c r="O4">
-        <v>0.523109243697479</v>
-      </c>
-      <c r="P4">
-        <v>-0.1540327471194658</v>
-      </c>
-      <c r="Q4">
-        <v>-0.004813523347483306</v>
-      </c>
-      <c r="R4">
-        <v>-0.006508273412457743</v>
-      </c>
-      <c r="S4">
-        <v>-0.01095902278437144</v>
-      </c>
-      <c r="T4">
-        <v>-0.02280602962834616</v>
-      </c>
-      <c r="U4">
-        <v>0.01378541107164516</v>
-      </c>
-      <c r="V4">
-        <v>-0.01956813653296369</v>
-      </c>
-      <c r="W4">
-        <v>0.00227410551849605</v>
-      </c>
-      <c r="X4">
-        <v>-0.0201095902278437</v>
-      </c>
-      <c r="Y4">
-        <v>0.02538334921597507</v>
-      </c>
-      <c r="Z4">
-        <v>15.84964200477327</v>
-      </c>
-      <c r="AA4">
-        <v>0.4953013126491647</v>
-      </c>
-      <c r="AB4">
-        <v>0.4832935560859188</v>
-      </c>
-      <c r="AC4">
-        <v>0.5074582338902148</v>
-      </c>
-      <c r="AD4">
-        <v>0.5047732696897375</v>
-      </c>
-      <c r="AE4">
-        <v>0.4823985680190931</v>
-      </c>
-      <c r="AF4">
-        <v>0.5014916467780429</v>
-      </c>
-      <c r="AG4">
-        <v>0.5023866348448688</v>
-      </c>
-      <c r="AH4">
-        <v>0.4877684964200477</v>
-      </c>
-      <c r="AI4">
-        <v>0.4928400954653938</v>
-      </c>
-      <c r="AJ4">
-        <v>0.03271093640320188</v>
-      </c>
-      <c r="AK4">
-        <v>0.001022216762600059</v>
-      </c>
-      <c r="AL4">
-        <v>0.0009501413930727565</v>
-      </c>
-      <c r="AM4">
-        <v>-0.003256553217945934</v>
-      </c>
-      <c r="AN4">
-        <v>-0.02788251338721642</v>
-      </c>
-      <c r="AO4">
-        <v>0.01865185214897414</v>
-      </c>
-      <c r="AP4">
-        <v>-0.01514710896291688</v>
-      </c>
-      <c r="AQ4">
-        <v>0.01231924750807234</v>
-      </c>
-      <c r="AR4">
-        <v>-0.00772647961332501</v>
-      </c>
-      <c r="AS4">
-        <v>0.03026914823208521</v>
-      </c>
-      <c r="AT4">
-        <v>189</v>
-      </c>
-      <c r="AU4">
-        <v>0.7411764705882353</v>
+      <c r="D5">
+        <v>241</v>
+      </c>
+      <c r="E5">
+        <v>14</v>
+      </c>
+      <c r="F5">
+        <v>16.149377593361</v>
+      </c>
+      <c r="G5">
+        <v>0.5046680497925311</v>
+      </c>
+      <c r="H5">
+        <v>0.4885892116182572</v>
+      </c>
+      <c r="I5">
+        <v>0.5186721991701245</v>
+      </c>
+      <c r="J5">
+        <v>0.4979253112033195</v>
+      </c>
+      <c r="K5">
+        <v>0.504149377593361</v>
+      </c>
+      <c r="L5">
+        <v>0.5269709543568465</v>
+      </c>
+      <c r="M5">
+        <v>0.5134854771784232</v>
+      </c>
+      <c r="N5">
+        <v>0.4844398340248963</v>
+      </c>
+      <c r="O5">
+        <v>0.5031120331950207</v>
+      </c>
+      <c r="P5">
+        <v>0.5015625</v>
+      </c>
+      <c r="Q5">
+        <v>0.5034375</v>
+      </c>
+      <c r="R5">
+        <v>0.51171875</v>
+      </c>
+      <c r="S5">
+        <v>0.49953125</v>
+      </c>
+      <c r="T5">
+        <v>0.51</v>
+      </c>
+      <c r="U5">
+        <v>0.50515625</v>
+      </c>
+      <c r="V5">
+        <v>0.50328125</v>
+      </c>
+      <c r="W5">
+        <v>0.50109375</v>
+      </c>
+      <c r="X5">
+        <v>0.006252593360994041</v>
+      </c>
+      <c r="Y5">
+        <v>0.0001953935425310638</v>
+      </c>
+      <c r="Z5">
+        <v>-0.01297328838174278</v>
+      </c>
+      <c r="AA5">
+        <v>0.01523469917012454</v>
+      </c>
+      <c r="AB5">
+        <v>-0.01379343879668049</v>
+      </c>
+      <c r="AC5">
+        <v>0.004618127593360999</v>
+      </c>
+      <c r="AD5">
+        <v>0.01697095435684648</v>
+      </c>
+      <c r="AE5">
+        <v>0.008329227178423215</v>
+      </c>
+      <c r="AF5">
+        <v>-0.01884141597510375</v>
+      </c>
+      <c r="AG5">
+        <v>0.002018283195020731</v>
+      </c>
+      <c r="AH5">
+        <v>16.13120567375887</v>
+      </c>
+      <c r="AI5">
+        <v>0.5041001773049646</v>
+      </c>
+      <c r="AJ5">
+        <v>0.5091607565011821</v>
+      </c>
+      <c r="AK5">
+        <v>0.5011820330969267</v>
+      </c>
+      <c r="AL5">
+        <v>0.5070921985815603</v>
+      </c>
+      <c r="AM5">
+        <v>0.4979314420803783</v>
+      </c>
+      <c r="AN5">
+        <v>0.5079787234042553</v>
+      </c>
+      <c r="AO5">
+        <v>0.5011820330969267</v>
+      </c>
+      <c r="AP5">
+        <v>0.49822695035461</v>
+      </c>
+      <c r="AQ5">
+        <v>0.5100472813238771</v>
+      </c>
+      <c r="AR5">
+        <v>0.01817191960212838</v>
+      </c>
+      <c r="AS5">
+        <v>0.000567872487566512</v>
+      </c>
+      <c r="AT5">
+        <v>-0.02057154488292484</v>
+      </c>
+      <c r="AU5">
+        <v>0.01749016607319787</v>
+      </c>
+      <c r="AV5">
+        <v>-0.009166887378240784</v>
+      </c>
+      <c r="AW5">
+        <v>0.00621793551298272</v>
+      </c>
+      <c r="AX5">
+        <v>0.01899223095259117</v>
+      </c>
+      <c r="AY5">
+        <v>0.01230344408149653</v>
+      </c>
+      <c r="AZ5">
+        <v>-0.01378711632971369</v>
+      </c>
+      <c r="BA5">
+        <v>-0.006935248128856375</v>
+      </c>
+      <c r="BB5">
+        <v>190</v>
+      </c>
+      <c r="BC5">
+        <v>0.7450980392156863</v>
       </c>
     </row>
-    <row r="5" spans="1:47">
-      <c r="A5" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B5" t="s">
-        <v>62</v>
-      </c>
-      <c r="C5">
+    <row r="6" spans="1:55">
+      <c r="A6" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C6">
         <v>44</v>
       </c>
-      <c r="D5">
-        <v>40</v>
-      </c>
-      <c r="E5">
-        <v>4</v>
-      </c>
-      <c r="F5">
-        <v>16.125</v>
-      </c>
-      <c r="G5">
-        <v>0.50390625</v>
-      </c>
-      <c r="H5">
-        <v>0.3875</v>
-      </c>
-      <c r="I5">
-        <v>0.50625</v>
-      </c>
-      <c r="J5">
-        <v>0.5125</v>
-      </c>
-      <c r="K5">
-        <v>0.49375</v>
-      </c>
-      <c r="L5">
-        <v>0.56875</v>
-      </c>
-      <c r="M5">
-        <v>0.53125</v>
-      </c>
-      <c r="N5">
-        <v>0.56875</v>
-      </c>
-      <c r="O5">
-        <v>0.4625</v>
-      </c>
-      <c r="P5">
-        <v>0.0886143117040632</v>
-      </c>
-      <c r="Q5">
-        <v>0.002769197240751975</v>
-      </c>
-      <c r="R5">
-        <v>-0.1032519708914493</v>
-      </c>
-      <c r="S5">
-        <v>-0.008910703456640356</v>
-      </c>
-      <c r="T5">
-        <v>0.01280321406913276</v>
-      </c>
-      <c r="U5">
-        <v>0.006484990903577958</v>
-      </c>
-      <c r="V5">
-        <v>0.06283732565191025</v>
-      </c>
-      <c r="W5">
-        <v>0.01881822316555493</v>
-      </c>
-      <c r="X5">
-        <v>0.06859839296543357</v>
-      </c>
-      <c r="Y5">
-        <v>-0.03522589448150393</v>
-      </c>
-      <c r="Z5">
-        <v>15.84964200477327</v>
-      </c>
-      <c r="AA5">
-        <v>0.4953013126491647</v>
-      </c>
-      <c r="AB5">
-        <v>0.4832935560859188</v>
-      </c>
-      <c r="AC5">
-        <v>0.5074582338902148</v>
-      </c>
-      <c r="AD5">
-        <v>0.5047732696897375</v>
-      </c>
-      <c r="AE5">
-        <v>0.4823985680190931</v>
-      </c>
-      <c r="AF5">
-        <v>0.5014916467780429</v>
-      </c>
-      <c r="AG5">
-        <v>0.5023866348448688</v>
-      </c>
-      <c r="AH5">
-        <v>0.4877684964200477</v>
-      </c>
-      <c r="AI5">
-        <v>0.4928400954653938</v>
-      </c>
-      <c r="AJ5">
-        <v>0.2753579952267309</v>
-      </c>
-      <c r="AK5">
-        <v>0.00860493735083534</v>
-      </c>
-      <c r="AL5">
-        <v>-0.09579355608591883</v>
-      </c>
-      <c r="AM5">
-        <v>-0.001208233890214849</v>
-      </c>
-      <c r="AN5">
-        <v>0.007726730310262497</v>
-      </c>
-      <c r="AO5">
-        <v>0.01135143198090693</v>
-      </c>
-      <c r="AP5">
-        <v>0.06725835322195706</v>
-      </c>
-      <c r="AQ5">
-        <v>0.02886336515513122</v>
-      </c>
-      <c r="AR5">
-        <v>0.08098150357995226</v>
-      </c>
-      <c r="AS5">
-        <v>-0.03034009546539379</v>
-      </c>
-      <c r="AT5">
-        <v>34</v>
-      </c>
-      <c r="AU5">
-        <v>0.7727272727272727</v>
+      <c r="D6">
+        <v>42</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>17.02380952380953</v>
+      </c>
+      <c r="G6">
+        <v>0.5319940476190477</v>
+      </c>
+      <c r="H6">
+        <v>0.6309523809523809</v>
+      </c>
+      <c r="I6">
+        <v>0.5416666666666666</v>
+      </c>
+      <c r="J6">
+        <v>0.5178571428571429</v>
+      </c>
+      <c r="K6">
+        <v>0.4345238095238095</v>
+      </c>
+      <c r="L6">
+        <v>0.5238095238095238</v>
+      </c>
+      <c r="M6">
+        <v>0.5952380952380952</v>
+      </c>
+      <c r="N6">
+        <v>0.5059523809523809</v>
+      </c>
+      <c r="O6">
+        <v>0.5059523809523809</v>
+      </c>
+      <c r="P6">
+        <v>0.5015625</v>
+      </c>
+      <c r="Q6">
+        <v>0.5034375</v>
+      </c>
+      <c r="R6">
+        <v>0.51171875</v>
+      </c>
+      <c r="S6">
+        <v>0.49953125</v>
+      </c>
+      <c r="T6">
+        <v>0.51</v>
+      </c>
+      <c r="U6">
+        <v>0.50515625</v>
+      </c>
+      <c r="V6">
+        <v>0.50328125</v>
+      </c>
+      <c r="W6">
+        <v>0.50109375</v>
+      </c>
+      <c r="X6">
+        <v>0.8806845238095242</v>
+      </c>
+      <c r="Y6">
+        <v>0.02752139136904763</v>
+      </c>
+      <c r="Z6">
+        <v>0.1293898809523809</v>
+      </c>
+      <c r="AA6">
+        <v>0.03822916666666665</v>
+      </c>
+      <c r="AB6">
+        <v>0.006138392857142905</v>
+      </c>
+      <c r="AC6">
+        <v>-0.06500744047619045</v>
+      </c>
+      <c r="AD6">
+        <v>0.01380952380952383</v>
+      </c>
+      <c r="AE6">
+        <v>0.09008184523809526</v>
+      </c>
+      <c r="AF6">
+        <v>0.002671130952380918</v>
+      </c>
+      <c r="AG6">
+        <v>0.004858630952380927</v>
+      </c>
+      <c r="AH6">
+        <v>16.13120567375887</v>
+      </c>
+      <c r="AI6">
+        <v>0.5041001773049646</v>
+      </c>
+      <c r="AJ6">
+        <v>0.5091607565011821</v>
+      </c>
+      <c r="AK6">
+        <v>0.5011820330969267</v>
+      </c>
+      <c r="AL6">
+        <v>0.5070921985815603</v>
+      </c>
+      <c r="AM6">
+        <v>0.4979314420803783</v>
+      </c>
+      <c r="AN6">
+        <v>0.5079787234042553</v>
+      </c>
+      <c r="AO6">
+        <v>0.5011820330969267</v>
+      </c>
+      <c r="AP6">
+        <v>0.49822695035461</v>
+      </c>
+      <c r="AQ6">
+        <v>0.5100472813238771</v>
+      </c>
+      <c r="AR6">
+        <v>0.8926038500506586</v>
+      </c>
+      <c r="AS6">
+        <v>0.02789387031408308</v>
+      </c>
+      <c r="AT6">
+        <v>0.1217916244511988</v>
+      </c>
+      <c r="AU6">
+        <v>0.04048463356973997</v>
+      </c>
+      <c r="AV6">
+        <v>0.01076494427558261</v>
+      </c>
+      <c r="AW6">
+        <v>-0.06340763255656873</v>
+      </c>
+      <c r="AX6">
+        <v>0.01583080040526852</v>
+      </c>
+      <c r="AY6">
+        <v>0.09405606214116857</v>
+      </c>
+      <c r="AZ6">
+        <v>0.007725430597770977</v>
+      </c>
+      <c r="BA6">
+        <v>-0.00409490037149618</v>
+      </c>
+      <c r="BB6">
+        <v>31</v>
+      </c>
+      <c r="BC6">
+        <v>0.7045454545454546</v>
       </c>
     </row>
-    <row r="6" spans="1:47">
-      <c r="A6" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B6" t="s">
-        <v>64</v>
-      </c>
-      <c r="C6">
-        <v>161</v>
-      </c>
-      <c r="D6">
-        <v>150</v>
-      </c>
-      <c r="E6">
-        <v>11</v>
-      </c>
-      <c r="F6">
-        <v>16.3</v>
-      </c>
-      <c r="G6">
-        <v>0.509375</v>
-      </c>
-      <c r="H6">
-        <v>0.4466666666666667</v>
-      </c>
-      <c r="I6">
-        <v>0.535</v>
-      </c>
-      <c r="J6">
-        <v>0.5316666666666666</v>
-      </c>
-      <c r="K6">
-        <v>0.515</v>
-      </c>
-      <c r="L6">
-        <v>0.4933333333333333</v>
-      </c>
-      <c r="M6">
-        <v>0.5266666666666666</v>
-      </c>
-      <c r="N6">
-        <v>0.5266666666666666</v>
-      </c>
-      <c r="O6">
-        <v>0.5</v>
-      </c>
-      <c r="P6">
-        <v>0.2636143117040639</v>
-      </c>
-      <c r="Q6">
-        <v>0.008237947240751997</v>
-      </c>
-      <c r="R6">
-        <v>-0.04408530422478268</v>
-      </c>
-      <c r="S6">
-        <v>0.0198392965433597</v>
-      </c>
-      <c r="T6">
-        <v>0.03196988073579943</v>
-      </c>
-      <c r="U6">
-        <v>0.02773499090357795</v>
-      </c>
-      <c r="V6">
-        <v>-0.01257934101475638</v>
-      </c>
-      <c r="W6">
-        <v>0.01423488983222154</v>
-      </c>
-      <c r="X6">
-        <v>0.02651505963210021</v>
-      </c>
-      <c r="Y6">
-        <v>0.00227410551849605</v>
-      </c>
-      <c r="Z6">
-        <v>16.3</v>
-      </c>
-      <c r="AA6">
-        <v>0.509375</v>
-      </c>
-      <c r="AB6">
-        <v>0.4466666666666667</v>
-      </c>
-      <c r="AC6">
-        <v>0.535</v>
-      </c>
-      <c r="AD6">
-        <v>0.5316666666666666</v>
-      </c>
-      <c r="AE6">
-        <v>0.515</v>
-      </c>
-      <c r="AF6">
-        <v>0.4933333333333333</v>
-      </c>
-      <c r="AG6">
-        <v>0.5266666666666666</v>
-      </c>
-      <c r="AH6">
-        <v>0.5266666666666666</v>
-      </c>
-      <c r="AI6">
-        <v>0.5</v>
-      </c>
-      <c r="AJ6">
-        <v>0</v>
-      </c>
-      <c r="AK6">
-        <v>0</v>
-      </c>
-      <c r="AL6">
-        <v>0</v>
-      </c>
-      <c r="AM6">
-        <v>0</v>
-      </c>
-      <c r="AN6">
-        <v>0</v>
-      </c>
-      <c r="AO6">
-        <v>0</v>
-      </c>
-      <c r="AP6">
-        <v>0</v>
-      </c>
-      <c r="AQ6">
-        <v>0</v>
-      </c>
-      <c r="AR6">
-        <v>0</v>
-      </c>
-      <c r="AS6">
-        <v>0</v>
-      </c>
-      <c r="AT6">
-        <v>116</v>
-      </c>
-      <c r="AU6">
-        <v>0.7204968944099379</v>
-      </c>
-    </row>
-    <row r="7" spans="1:47">
+    <row r="7" spans="1:55">
       <c r="A7" s="1" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="B7" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="C7">
         <v>375</v>
       </c>
       <c r="D7">
-        <v>348</v>
+        <v>358</v>
       </c>
       <c r="E7">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="F7">
-        <v>15.88793103448276</v>
+        <v>15.99162011173184</v>
       </c>
       <c r="G7">
-        <v>0.4964978448275862</v>
+        <v>0.4997381284916201</v>
       </c>
       <c r="H7">
-        <v>0.4849137931034483</v>
+        <v>0.513268156424581</v>
       </c>
       <c r="I7">
-        <v>0.5114942528735632</v>
+        <v>0.4797486033519553</v>
       </c>
       <c r="J7">
-        <v>0.5122126436781609</v>
+        <v>0.5020949720670391</v>
       </c>
       <c r="K7">
-        <v>0.4762931034482759</v>
+        <v>0.4797486033519553</v>
       </c>
       <c r="L7">
-        <v>0.5158045977011494</v>
+        <v>0.5062849162011173</v>
       </c>
       <c r="M7">
-        <v>0.5007183908045977</v>
+        <v>0.4762569832402235</v>
       </c>
       <c r="N7">
-        <v>0.4827586206896552</v>
+        <v>0.513268156424581</v>
       </c>
       <c r="O7">
-        <v>0.4877873563218391</v>
+        <v>0.5272346368715084</v>
       </c>
       <c r="P7">
-        <v>-0.1484546538131788</v>
+        <v>0.5015625</v>
       </c>
       <c r="Q7">
-        <v>-0.004639207931661837</v>
+        <v>0.5034375</v>
       </c>
       <c r="R7">
-        <v>-0.005838177788001053</v>
+        <v>0.51171875</v>
       </c>
       <c r="S7">
-        <v>-0.00366645058307713</v>
+        <v>0.49953125</v>
       </c>
       <c r="T7">
-        <v>0.01251585774729369</v>
+        <v>0.51</v>
       </c>
       <c r="U7">
-        <v>-0.01097190564814621</v>
+        <v>0.50515625</v>
       </c>
       <c r="V7">
-        <v>0.009891923353059662</v>
+        <v>0.50328125</v>
       </c>
       <c r="W7">
-        <v>-0.01171338602984739</v>
+        <v>0.50109375</v>
       </c>
       <c r="X7">
-        <v>-0.01739298634491121</v>
+        <v>-0.1515048882681569</v>
       </c>
       <c r="Y7">
-        <v>-0.009938538159664889</v>
+        <v>-0.004734527758379903</v>
       </c>
       <c r="Z7">
-        <v>15.84964200477327</v>
+        <v>0.01170565642458099</v>
       </c>
       <c r="AA7">
-        <v>0.4953013126491647</v>
+        <v>-0.02368889664804469</v>
       </c>
       <c r="AB7">
-        <v>0.4832935560859188</v>
+        <v>-0.009623777932960875</v>
       </c>
       <c r="AC7">
-        <v>0.5074582338902148</v>
+        <v>-0.01978264664804469</v>
       </c>
       <c r="AD7">
-        <v>0.5047732696897375</v>
+        <v>-0.003715083798882746</v>
       </c>
       <c r="AE7">
-        <v>0.4823985680190931</v>
+        <v>-0.0288992667597765</v>
       </c>
       <c r="AF7">
-        <v>0.5014916467780429</v>
+        <v>0.009986906424580999</v>
       </c>
       <c r="AG7">
-        <v>0.5023866348448688</v>
+        <v>0.0261408868715084</v>
       </c>
       <c r="AH7">
-        <v>0.4877684964200477</v>
+        <v>16.13120567375887</v>
       </c>
       <c r="AI7">
-        <v>0.4928400954653938</v>
+        <v>0.5041001773049646</v>
       </c>
       <c r="AJ7">
-        <v>0.03828902970948889</v>
+        <v>0.5091607565011821</v>
       </c>
       <c r="AK7">
-        <v>0.001196532178421528</v>
+        <v>0.5011820330969267</v>
       </c>
       <c r="AL7">
-        <v>0.001620237017529447</v>
+        <v>0.5070921985815603</v>
       </c>
       <c r="AM7">
-        <v>0.004036018983348377</v>
+        <v>0.4979314420803783</v>
       </c>
       <c r="AN7">
-        <v>0.007439373988423426</v>
+        <v>0.5079787234042553</v>
       </c>
       <c r="AO7">
-        <v>-0.006105464570817232</v>
+        <v>0.5011820330969267</v>
       </c>
       <c r="AP7">
-        <v>0.01431295092310647</v>
+        <v>0.49822695035461</v>
       </c>
       <c r="AQ7">
-        <v>-0.001668244040271105</v>
+        <v>0.5100472813238771</v>
       </c>
       <c r="AR7">
-        <v>-0.005009875730392521</v>
+        <v>-0.1395855620270225</v>
       </c>
       <c r="AS7">
-        <v>-0.005052739143554752</v>
+        <v>-0.004362048813344455</v>
       </c>
       <c r="AT7">
-        <v>287</v>
+        <v>0.004107399923398924</v>
       </c>
       <c r="AU7">
-        <v>0.7653333333333333</v>
+        <v>-0.02143342974497137</v>
+      </c>
+      <c r="AV7">
+        <v>-0.004997226514521169</v>
+      </c>
+      <c r="AW7">
+        <v>-0.01818283872842297</v>
+      </c>
+      <c r="AX7">
+        <v>-0.001693807203138054</v>
+      </c>
+      <c r="AY7">
+        <v>-0.02492504985670319</v>
+      </c>
+      <c r="AZ7">
+        <v>0.01504120606997106</v>
+      </c>
+      <c r="BA7">
+        <v>0.01718735554763129</v>
+      </c>
+      <c r="BB7">
+        <v>294</v>
+      </c>
+      <c r="BC7">
+        <v>0.784</v>
       </c>
     </row>
-    <row r="8" spans="1:47">
+    <row r="8" spans="1:55">
       <c r="A8" s="1" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="B8" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="C8">
         <v>58</v>
@@ -1593,138 +1785,162 @@
         <v>3</v>
       </c>
       <c r="F8">
-        <v>15.54545454545454</v>
+        <v>15.83636363636364</v>
       </c>
       <c r="G8">
-        <v>0.4857954545454545</v>
+        <v>0.4948863636363636</v>
       </c>
       <c r="H8">
-        <v>0.4272727272727272</v>
+        <v>0.4954545454545455</v>
       </c>
       <c r="I8">
-        <v>0.65</v>
+        <v>0.4409090909090909</v>
       </c>
       <c r="J8">
-        <v>0.4409090909090909</v>
+        <v>0.5636363636363636</v>
       </c>
       <c r="K8">
+        <v>0.55</v>
+      </c>
+      <c r="L8">
+        <v>0.5272727272727272</v>
+      </c>
+      <c r="M8">
+        <v>0.5363636363636364</v>
+      </c>
+      <c r="N8">
+        <v>0.4363636363636363</v>
+      </c>
+      <c r="O8">
         <v>0.4090909090909091</v>
       </c>
-      <c r="L8">
-        <v>0.45</v>
-      </c>
-      <c r="M8">
-        <v>0.5272727272727272</v>
-      </c>
-      <c r="N8">
-        <v>0.4954545454545455</v>
-      </c>
-      <c r="O8">
-        <v>0.4863636363636364</v>
-      </c>
       <c r="P8">
-        <v>-0.4909311428413918</v>
+        <v>0.5015625</v>
       </c>
       <c r="Q8">
-        <v>-0.01534159821379349</v>
+        <v>0.5034375</v>
       </c>
       <c r="R8">
-        <v>-0.06347924361872209</v>
+        <v>0.51171875</v>
       </c>
       <c r="S8">
-        <v>0.1348392965433597</v>
+        <v>0.49953125</v>
       </c>
       <c r="T8">
-        <v>-0.05878769502177628</v>
+        <v>0.51</v>
       </c>
       <c r="U8">
-        <v>-0.07817410000551295</v>
+        <v>0.50515625</v>
       </c>
       <c r="V8">
-        <v>-0.05591267434808972</v>
+        <v>0.50328125</v>
       </c>
       <c r="W8">
-        <v>0.01484095043828215</v>
+        <v>0.50109375</v>
       </c>
       <c r="X8">
-        <v>-0.004697061580020923</v>
+        <v>-0.3067613636363653</v>
       </c>
       <c r="Y8">
-        <v>-0.01136225811786756</v>
+        <v>-0.009586292613636416</v>
       </c>
       <c r="Z8">
-        <v>16.29666011787819</v>
+        <v>-0.006107954545454541</v>
       </c>
       <c r="AA8">
-        <v>0.5092706286836935</v>
+        <v>-0.06252840909090907</v>
       </c>
       <c r="AB8">
-        <v>0.5073673870333988</v>
+        <v>0.0519176136363636</v>
       </c>
       <c r="AC8">
-        <v>0.5299607072691552</v>
+        <v>0.05046875000000006</v>
       </c>
       <c r="AD8">
-        <v>0.50049115913556</v>
+        <v>0.01727272727272722</v>
       </c>
       <c r="AE8">
-        <v>0.4852652259332024</v>
+        <v>0.0312073863636364</v>
       </c>
       <c r="AF8">
-        <v>0.5142436149312377</v>
+        <v>-0.06691761363636367</v>
       </c>
       <c r="AG8">
-        <v>0.518172888015717</v>
+        <v>-0.09200284090909089</v>
       </c>
       <c r="AH8">
-        <v>0.519155206286837</v>
+        <v>16.20194174757281</v>
       </c>
       <c r="AI8">
-        <v>0.4995088408644401</v>
+        <v>0.5063106796116504</v>
       </c>
       <c r="AJ8">
-        <v>-0.7512055724236486</v>
+        <v>0.5072815533980582</v>
       </c>
       <c r="AK8">
-        <v>-0.02347517413823902</v>
+        <v>0.5053398058252427</v>
       </c>
       <c r="AL8">
-        <v>-0.08009465976067154</v>
+        <v>0.5101941747572816</v>
       </c>
       <c r="AM8">
-        <v>0.1200392927308448</v>
+        <v>0.4990291262135922</v>
       </c>
       <c r="AN8">
-        <v>-0.05958206822646905</v>
+        <v>0.5063106796116504</v>
       </c>
       <c r="AO8">
-        <v>-0.07617431684229325</v>
+        <v>0.5121359223300971</v>
       </c>
       <c r="AP8">
-        <v>-0.0642436149312377</v>
+        <v>0.5199029126213592</v>
       </c>
       <c r="AQ8">
-        <v>0.009099839257010189</v>
+        <v>0.4902912621359223</v>
       </c>
       <c r="AR8">
-        <v>-0.0237006608322915</v>
+        <v>-0.365578111209178</v>
       </c>
       <c r="AS8">
-        <v>-0.0131452045008037</v>
+        <v>-0.01142431597528681</v>
       </c>
       <c r="AT8">
-        <v>47</v>
+        <v>-0.01182700794351277</v>
       </c>
       <c r="AU8">
-        <v>0.8103448275862069</v>
+        <v>-0.06443071491615182</v>
+      </c>
+      <c r="AV8">
+        <v>0.05344218887908203</v>
+      </c>
+      <c r="AW8">
+        <v>0.0509708737864078</v>
+      </c>
+      <c r="AX8">
+        <v>0.02096204766107679</v>
+      </c>
+      <c r="AY8">
+        <v>0.02422771403353929</v>
+      </c>
+      <c r="AZ8">
+        <v>-0.08353927625772289</v>
+      </c>
+      <c r="BA8">
+        <v>-0.08120035304501322</v>
+      </c>
+      <c r="BB8">
+        <v>46</v>
+      </c>
+      <c r="BC8">
+        <v>0.7931034482758621</v>
       </c>
     </row>
-    <row r="9" spans="1:47">
+    <row r="9" spans="1:55">
       <c r="A9" s="1" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="B9" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="C9">
         <v>41</v>
@@ -1736,1131 +1952,1323 @@
         <v>1</v>
       </c>
       <c r="F9">
-        <v>16.075</v>
+        <v>17.8</v>
       </c>
       <c r="G9">
-        <v>0.50234375</v>
+        <v>0.55625</v>
       </c>
       <c r="H9">
+        <v>0.59375</v>
+      </c>
+      <c r="I9">
+        <v>0.55625</v>
+      </c>
+      <c r="J9">
         <v>0.54375</v>
       </c>
-      <c r="I9">
-        <v>0.50625</v>
-      </c>
-      <c r="J9">
+      <c r="K9">
+        <v>0.45625</v>
+      </c>
+      <c r="L9">
+        <v>0.54375</v>
+      </c>
+      <c r="M9">
+        <v>0.625</v>
+      </c>
+      <c r="N9">
+        <v>0.575</v>
+      </c>
+      <c r="O9">
         <v>0.55625</v>
       </c>
-      <c r="K9">
-        <v>0.39375</v>
-      </c>
-      <c r="L9">
-        <v>0.51875</v>
-      </c>
-      <c r="M9">
-        <v>0.475</v>
-      </c>
-      <c r="N9">
-        <v>0.5375</v>
-      </c>
-      <c r="O9">
-        <v>0.4875</v>
-      </c>
       <c r="P9">
-        <v>0.03861431170406249</v>
+        <v>0.5015625</v>
       </c>
       <c r="Q9">
-        <v>0.001206697240751953</v>
+        <v>0.5034375</v>
       </c>
       <c r="R9">
-        <v>0.05299802910855061</v>
+        <v>0.51171875</v>
       </c>
       <c r="S9">
-        <v>-0.008910703456640356</v>
+        <v>0.49953125</v>
       </c>
       <c r="T9">
-        <v>0.05655321406913283</v>
+        <v>0.51</v>
       </c>
       <c r="U9">
-        <v>-0.09351500909642207</v>
+        <v>0.50515625</v>
       </c>
       <c r="V9">
-        <v>0.01283732565191031</v>
+        <v>0.50328125</v>
       </c>
       <c r="W9">
-        <v>-0.0374317768344451</v>
+        <v>0.50109375</v>
       </c>
       <c r="X9">
-        <v>0.03734839296543357</v>
+        <v>1.656874999999999</v>
       </c>
       <c r="Y9">
-        <v>-0.01022589448150396</v>
+        <v>0.05177734374999998</v>
       </c>
       <c r="Z9">
-        <v>16.29666011787819</v>
+        <v>0.09218749999999998</v>
       </c>
       <c r="AA9">
-        <v>0.5092706286836935</v>
+        <v>0.05281250000000004</v>
       </c>
       <c r="AB9">
-        <v>0.5073673870333988</v>
+        <v>0.03203124999999996</v>
       </c>
       <c r="AC9">
-        <v>0.5299607072691552</v>
+        <v>-0.04328124999999999</v>
       </c>
       <c r="AD9">
-        <v>0.50049115913556</v>
+        <v>0.03374999999999995</v>
       </c>
       <c r="AE9">
-        <v>0.4852652259332024</v>
+        <v>0.11984375</v>
       </c>
       <c r="AF9">
-        <v>0.5142436149312377</v>
+        <v>0.07171874999999994</v>
       </c>
       <c r="AG9">
-        <v>0.518172888015717</v>
+        <v>0.05515625000000002</v>
       </c>
       <c r="AH9">
-        <v>0.519155206286837</v>
+        <v>16.20194174757281</v>
       </c>
       <c r="AI9">
-        <v>0.4995088408644401</v>
+        <v>0.5063106796116504</v>
       </c>
       <c r="AJ9">
-        <v>-0.2216601178781943</v>
+        <v>0.5072815533980582</v>
       </c>
       <c r="AK9">
-        <v>-0.006926878683693571</v>
+        <v>0.5053398058252427</v>
       </c>
       <c r="AL9">
-        <v>0.03638261296660117</v>
+        <v>0.5101941747572816</v>
       </c>
       <c r="AM9">
-        <v>-0.02371070726915525</v>
+        <v>0.4990291262135922</v>
       </c>
       <c r="AN9">
-        <v>0.05575884086444005</v>
+        <v>0.5063106796116504</v>
       </c>
       <c r="AO9">
-        <v>-0.09151522593320238</v>
+        <v>0.5121359223300971</v>
       </c>
       <c r="AP9">
-        <v>0.004506385068762331</v>
+        <v>0.5199029126213592</v>
       </c>
       <c r="AQ9">
-        <v>-0.04317288801571706</v>
+        <v>0.4902912621359223</v>
       </c>
       <c r="AR9">
-        <v>0.018344793713163</v>
+        <v>1.598058252427187</v>
       </c>
       <c r="AS9">
-        <v>-0.0120088408644401</v>
+        <v>0.04993932038834958</v>
       </c>
       <c r="AT9">
-        <v>36</v>
+        <v>0.08646844660194175</v>
       </c>
       <c r="AU9">
-        <v>0.8780487804878049</v>
+        <v>0.05091019417475728</v>
+      </c>
+      <c r="AV9">
+        <v>0.03355582524271838</v>
+      </c>
+      <c r="AW9">
+        <v>-0.04277912621359226</v>
+      </c>
+      <c r="AX9">
+        <v>0.03743932038834952</v>
+      </c>
+      <c r="AY9">
+        <v>0.1128640776699029</v>
+      </c>
+      <c r="AZ9">
+        <v>0.05509708737864072</v>
+      </c>
+      <c r="BA9">
+        <v>0.06595873786407769</v>
+      </c>
+      <c r="BB9">
+        <v>27</v>
+      </c>
+      <c r="BC9">
+        <v>0.6585365853658537</v>
       </c>
     </row>
-    <row r="10" spans="1:47">
+    <row r="10" spans="1:55">
       <c r="A10" s="1" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="B10" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="C10">
         <v>56</v>
       </c>
       <c r="D10">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E10">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>15.73076923076923</v>
+        <v>16.44444444444444</v>
       </c>
       <c r="G10">
-        <v>0.4915865384615384</v>
+        <v>0.5138888888888888</v>
       </c>
       <c r="H10">
-        <v>0.5240384615384616</v>
+        <v>0.4861111111111111</v>
       </c>
       <c r="I10">
-        <v>0.4759615384615384</v>
+        <v>0.5324074074074074</v>
       </c>
       <c r="J10">
-        <v>0.4567307692307692</v>
+        <v>0.4953703703703703</v>
       </c>
       <c r="K10">
-        <v>0.4903846153846154</v>
+        <v>0.5370370370370371</v>
       </c>
       <c r="L10">
-        <v>0.5528846153846154</v>
+        <v>0.4953703703703703</v>
       </c>
       <c r="M10">
-        <v>0.4615384615384616</v>
+        <v>0.4953703703703703</v>
       </c>
       <c r="N10">
-        <v>0.5336538461538461</v>
+        <v>0.5648148148148148</v>
       </c>
       <c r="O10">
-        <v>0.4375</v>
+        <v>0.5046296296296297</v>
       </c>
       <c r="P10">
-        <v>-0.3056164575267069</v>
+        <v>0.5015625</v>
       </c>
       <c r="Q10">
-        <v>-0.009550514297709589</v>
+        <v>0.5034375</v>
       </c>
       <c r="R10">
-        <v>0.03328649064701222</v>
+        <v>0.51171875</v>
       </c>
       <c r="S10">
-        <v>-0.0391991649951019</v>
+        <v>0.49953125</v>
       </c>
       <c r="T10">
-        <v>-0.04296601670009798</v>
+        <v>0.51</v>
       </c>
       <c r="U10">
-        <v>0.0031196062881933</v>
+        <v>0.50515625</v>
       </c>
       <c r="V10">
-        <v>0.04697194103652569</v>
+        <v>0.50328125</v>
       </c>
       <c r="W10">
-        <v>-0.05089331529598351</v>
+        <v>0.50109375</v>
       </c>
       <c r="X10">
-        <v>0.03350223911927974</v>
+        <v>0.3013194444444416</v>
       </c>
       <c r="Y10">
-        <v>-0.06022589448150395</v>
+        <v>0.0094162326388888</v>
       </c>
       <c r="Z10">
-        <v>16.29666011787819</v>
+        <v>-0.01545138888888892</v>
       </c>
       <c r="AA10">
-        <v>0.5092706286836935</v>
+        <v>0.02896990740740746</v>
       </c>
       <c r="AB10">
-        <v>0.5073673870333988</v>
+        <v>-0.01634837962962965</v>
       </c>
       <c r="AC10">
-        <v>0.5299607072691552</v>
+        <v>0.03750578703703711</v>
       </c>
       <c r="AD10">
-        <v>0.50049115913556</v>
+        <v>-0.01462962962962966</v>
       </c>
       <c r="AE10">
-        <v>0.4852652259332024</v>
+        <v>-0.009785879629629624</v>
       </c>
       <c r="AF10">
-        <v>0.5142436149312377</v>
+        <v>0.06153356481481476</v>
       </c>
       <c r="AG10">
-        <v>0.518172888015717</v>
+        <v>0.003535879629629646</v>
       </c>
       <c r="AH10">
-        <v>0.519155206286837</v>
+        <v>16.20194174757281</v>
       </c>
       <c r="AI10">
-        <v>0.4995088408644401</v>
+        <v>0.5063106796116504</v>
       </c>
       <c r="AJ10">
-        <v>-0.5658908871089636</v>
+        <v>0.5072815533980582</v>
       </c>
       <c r="AK10">
-        <v>-0.01768409022215511</v>
+        <v>0.5053398058252427</v>
       </c>
       <c r="AL10">
-        <v>0.01667107450506278</v>
+        <v>0.5101941747572816</v>
       </c>
       <c r="AM10">
-        <v>-0.05399916880761679</v>
+        <v>0.4990291262135922</v>
       </c>
       <c r="AN10">
-        <v>-0.04376038990479075</v>
+        <v>0.5063106796116504</v>
       </c>
       <c r="AO10">
-        <v>0.005119389451412992</v>
+        <v>0.5121359223300971</v>
       </c>
       <c r="AP10">
-        <v>0.03864100045337771</v>
+        <v>0.5199029126213592</v>
       </c>
       <c r="AQ10">
-        <v>-0.05663442647725547</v>
+        <v>0.4902912621359223</v>
       </c>
       <c r="AR10">
-        <v>0.01449863986700917</v>
+        <v>0.2425026968716288</v>
       </c>
       <c r="AS10">
-        <v>-0.06200884086444008</v>
+        <v>0.007578209277238401</v>
       </c>
       <c r="AT10">
-        <v>44</v>
+        <v>-0.02117044228694714</v>
       </c>
       <c r="AU10">
-        <v>0.7857142857142857</v>
+        <v>0.0270676015821647</v>
+      </c>
+      <c r="AV10">
+        <v>-0.01482380438691122</v>
+      </c>
+      <c r="AW10">
+        <v>0.03800791082344485</v>
+      </c>
+      <c r="AX10">
+        <v>-0.01094030924128009</v>
+      </c>
+      <c r="AY10">
+        <v>-0.01676555195972673</v>
+      </c>
+      <c r="AZ10">
+        <v>0.04491190219345553</v>
+      </c>
+      <c r="BA10">
+        <v>0.01433836749370732</v>
+      </c>
+      <c r="BB10">
+        <v>46</v>
+      </c>
+      <c r="BC10">
+        <v>0.8214285714285714</v>
       </c>
     </row>
-    <row r="11" spans="1:47">
+    <row r="11" spans="1:55">
       <c r="A11" s="1" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="B11" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="C11">
         <v>55</v>
       </c>
       <c r="D11">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E11">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F11">
-        <v>17.44897959183674</v>
+        <v>15.86274509803922</v>
       </c>
       <c r="G11">
-        <v>0.545280612244898</v>
+        <v>0.4957107843137255</v>
       </c>
       <c r="H11">
-        <v>0.5051020408163265</v>
+        <v>0.553921568627451</v>
       </c>
       <c r="I11">
-        <v>0.576530612244898</v>
+        <v>0.5245098039215687</v>
       </c>
       <c r="J11">
-        <v>0.4795918367346939</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="K11">
-        <v>0.5255102040816326</v>
+        <v>0.5049019607843137</v>
       </c>
       <c r="L11">
-        <v>0.5714285714285714</v>
+        <v>0.5098039215686274</v>
       </c>
       <c r="M11">
-        <v>0.6020408163265306</v>
+        <v>0.4803921568627451</v>
       </c>
       <c r="N11">
-        <v>0.4795918367346939</v>
+        <v>0.5490196078431373</v>
       </c>
       <c r="O11">
-        <v>0.6224489795918368</v>
+        <v>0.4264705882352941</v>
       </c>
       <c r="P11">
-        <v>1.412593903540799</v>
+        <v>0.5015625</v>
       </c>
       <c r="Q11">
-        <v>0.04414355948564996</v>
+        <v>0.5034375</v>
       </c>
       <c r="R11">
-        <v>0.01435006992487714</v>
+        <v>0.51171875</v>
       </c>
       <c r="S11">
-        <v>0.06136990878825765</v>
+        <v>0.49953125</v>
       </c>
       <c r="T11">
-        <v>-0.02010494919617334</v>
+        <v>0.51</v>
       </c>
       <c r="U11">
-        <v>0.03824519498521056</v>
+        <v>0.50515625</v>
       </c>
       <c r="V11">
-        <v>0.06551589708048167</v>
+        <v>0.50328125</v>
       </c>
       <c r="W11">
-        <v>0.08960903949208554</v>
+        <v>0.50109375</v>
       </c>
       <c r="X11">
-        <v>-0.02055977029987255</v>
+        <v>-0.2803799019607851</v>
       </c>
       <c r="Y11">
-        <v>0.1247230851103328</v>
+        <v>-0.008761871936274535</v>
       </c>
       <c r="Z11">
-        <v>16.29666011787819</v>
+        <v>0.05235906862745099</v>
       </c>
       <c r="AA11">
-        <v>0.5092706286836935</v>
+        <v>0.02107230392156867</v>
       </c>
       <c r="AB11">
-        <v>0.5073673870333988</v>
+        <v>-0.09505208333333331</v>
       </c>
       <c r="AC11">
-        <v>0.5299607072691552</v>
+        <v>0.005370710784313726</v>
       </c>
       <c r="AD11">
-        <v>0.50049115913556</v>
+        <v>-0.0001960784313725927</v>
       </c>
       <c r="AE11">
-        <v>0.4852652259332024</v>
+        <v>-0.02476409313725486</v>
       </c>
       <c r="AF11">
-        <v>0.5142436149312377</v>
+        <v>0.04573835784313729</v>
       </c>
       <c r="AG11">
-        <v>0.518172888015717</v>
+        <v>-0.0746231617647059</v>
       </c>
       <c r="AH11">
-        <v>0.519155206286837</v>
+        <v>16.20194174757281</v>
       </c>
       <c r="AI11">
-        <v>0.4995088408644401</v>
+        <v>0.5063106796116504</v>
       </c>
       <c r="AJ11">
-        <v>1.152319473958542</v>
+        <v>0.5072815533980582</v>
       </c>
       <c r="AK11">
-        <v>0.03600998356120444</v>
+        <v>0.5053398058252427</v>
       </c>
       <c r="AL11">
-        <v>-0.002265346217072306</v>
+        <v>0.5101941747572816</v>
       </c>
       <c r="AM11">
-        <v>0.04656990497574276</v>
+        <v>0.4990291262135922</v>
       </c>
       <c r="AN11">
-        <v>-0.02089932240086612</v>
+        <v>0.5063106796116504</v>
       </c>
       <c r="AO11">
-        <v>0.04024497814843025</v>
+        <v>0.5121359223300971</v>
       </c>
       <c r="AP11">
-        <v>0.05718495649733368</v>
+        <v>0.5199029126213592</v>
       </c>
       <c r="AQ11">
-        <v>0.08386792831081358</v>
+        <v>0.4902912621359223</v>
       </c>
       <c r="AR11">
-        <v>-0.03956336955214312</v>
+        <v>-0.3391966495335978</v>
       </c>
       <c r="AS11">
-        <v>0.1229401387273967</v>
+        <v>-0.01059989529792493</v>
       </c>
       <c r="AT11">
-        <v>37</v>
+        <v>0.04664001522939276</v>
       </c>
       <c r="AU11">
-        <v>0.6727272727272727</v>
+        <v>0.01916999809632591</v>
+      </c>
+      <c r="AV11">
+        <v>-0.09352750809061489</v>
+      </c>
+      <c r="AW11">
+        <v>0.005872834570721464</v>
+      </c>
+      <c r="AX11">
+        <v>0.003493241956976978</v>
+      </c>
+      <c r="AY11">
+        <v>-0.03174376546735197</v>
+      </c>
+      <c r="AZ11">
+        <v>0.02911669522177807</v>
+      </c>
+      <c r="BA11">
+        <v>-0.06382067390062823</v>
+      </c>
+      <c r="BB11">
+        <v>43</v>
+      </c>
+      <c r="BC11">
+        <v>0.7818181818181819</v>
       </c>
     </row>
-    <row r="12" spans="1:47">
+    <row r="12" spans="1:55">
       <c r="A12" s="1" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="B12" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="C12">
         <v>45</v>
       </c>
       <c r="D12">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E12">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>16.24390243902439</v>
+        <v>16.62790697674419</v>
       </c>
       <c r="G12">
-        <v>0.5076219512195121</v>
+        <v>0.5196220930232558</v>
       </c>
       <c r="H12">
-        <v>0.5060975609756098</v>
+        <v>0.4593023255813953</v>
       </c>
       <c r="I12">
-        <v>0.4939024390243902</v>
+        <v>0.5872093023255814</v>
       </c>
       <c r="J12">
-        <v>0.5304878048780488</v>
+        <v>0.5</v>
       </c>
       <c r="K12">
-        <v>0.4817073170731707</v>
+        <v>0.4709302325581395</v>
       </c>
       <c r="L12">
-        <v>0.5853658536585366</v>
+        <v>0.4767441860465116</v>
       </c>
       <c r="M12">
-        <v>0.4878048780487805</v>
+        <v>0.563953488372093</v>
       </c>
       <c r="N12">
-        <v>0.524390243902439</v>
+        <v>0.5988372093023255</v>
       </c>
       <c r="O12">
-        <v>0.451219512195122</v>
+        <v>0.5</v>
       </c>
       <c r="P12">
-        <v>0.2075167507284519</v>
+        <v>0.5015625</v>
       </c>
       <c r="Q12">
-        <v>0.006484898460264121</v>
+        <v>0.5034375</v>
       </c>
       <c r="R12">
-        <v>0.01534559008416042</v>
+        <v>0.51171875</v>
       </c>
       <c r="S12">
-        <v>-0.0212582644322501</v>
+        <v>0.49953125</v>
       </c>
       <c r="T12">
-        <v>0.03079101894718161</v>
+        <v>0.51</v>
       </c>
       <c r="U12">
-        <v>-0.005557692023251348</v>
+        <v>0.50515625</v>
       </c>
       <c r="V12">
-        <v>0.07945317931044682</v>
+        <v>0.50328125</v>
       </c>
       <c r="W12">
-        <v>-0.0246268987856646</v>
+        <v>0.50109375</v>
       </c>
       <c r="X12">
-        <v>0.02423863686787264</v>
+        <v>0.4847819767441841</v>
       </c>
       <c r="Y12">
-        <v>-0.04650638228638199</v>
+        <v>0.01514943677325575</v>
       </c>
       <c r="Z12">
-        <v>16.29666011787819</v>
+        <v>-0.04226017441860469</v>
       </c>
       <c r="AA12">
-        <v>0.5092706286836935</v>
+        <v>0.08377180232558146</v>
       </c>
       <c r="AB12">
-        <v>0.5073673870333988</v>
+        <v>-0.01171875</v>
       </c>
       <c r="AC12">
-        <v>0.5299607072691552</v>
+        <v>-0.02860101744186044</v>
       </c>
       <c r="AD12">
-        <v>0.50049115913556</v>
+        <v>-0.03325581395348837</v>
       </c>
       <c r="AE12">
-        <v>0.4852652259332024</v>
+        <v>0.05879723837209305</v>
       </c>
       <c r="AF12">
-        <v>0.5142436149312377</v>
+        <v>0.09555595930232552</v>
       </c>
       <c r="AG12">
-        <v>0.518172888015717</v>
+        <v>-0.001093750000000004</v>
       </c>
       <c r="AH12">
-        <v>0.519155206286837</v>
+        <v>16.20194174757281</v>
       </c>
       <c r="AI12">
-        <v>0.4995088408644401</v>
+        <v>0.5063106796116504</v>
       </c>
       <c r="AJ12">
-        <v>-0.05275767885380489</v>
+        <v>0.5072815533980582</v>
       </c>
       <c r="AK12">
-        <v>-0.001648677464181403</v>
+        <v>0.5053398058252427</v>
       </c>
       <c r="AL12">
-        <v>-0.001269826057789025</v>
+        <v>0.5101941747572816</v>
       </c>
       <c r="AM12">
-        <v>-0.03605826824476499</v>
+        <v>0.4990291262135922</v>
       </c>
       <c r="AN12">
-        <v>0.02999664574248884</v>
+        <v>0.5063106796116504</v>
       </c>
       <c r="AO12">
-        <v>-0.003557908860031656</v>
+        <v>0.5121359223300971</v>
       </c>
       <c r="AP12">
-        <v>0.07112223872729884</v>
+        <v>0.5199029126213592</v>
       </c>
       <c r="AQ12">
-        <v>-0.03036800996693656</v>
+        <v>0.4902912621359223</v>
       </c>
       <c r="AR12">
-        <v>0.005235037615602067</v>
+        <v>0.4259652291713714</v>
       </c>
       <c r="AS12">
-        <v>-0.04828932866931812</v>
+        <v>0.01331141341160536</v>
       </c>
       <c r="AT12">
-        <v>32</v>
+        <v>-0.04797922781666292</v>
       </c>
       <c r="AU12">
-        <v>0.7111111111111111</v>
+        <v>0.0818694965003387</v>
+      </c>
+      <c r="AV12">
+        <v>-0.01019417475728157</v>
+      </c>
+      <c r="AW12">
+        <v>-0.02809889365545271</v>
+      </c>
+      <c r="AX12">
+        <v>-0.0295664935651388</v>
+      </c>
+      <c r="AY12">
+        <v>0.05181756604199594</v>
+      </c>
+      <c r="AZ12">
+        <v>0.0789342966809663</v>
+      </c>
+      <c r="BA12">
+        <v>0.009708737864077666</v>
+      </c>
+      <c r="BB12">
+        <v>33</v>
+      </c>
+      <c r="BC12">
+        <v>0.7333333333333333</v>
       </c>
     </row>
-    <row r="13" spans="1:47">
+    <row r="13" spans="1:55">
       <c r="A13" s="1" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="B13" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="C13">
         <v>48</v>
       </c>
       <c r="D13">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F13">
-        <v>16.39130434782609</v>
+        <v>14.85106382978723</v>
       </c>
       <c r="G13">
-        <v>0.5122282608695652</v>
+        <v>0.4640957446808511</v>
       </c>
       <c r="H13">
-        <v>0.5978260869565217</v>
+        <v>0.4893617021276596</v>
       </c>
       <c r="I13">
-        <v>0.4673913043478261</v>
+        <v>0.5</v>
       </c>
       <c r="J13">
-        <v>0.483695652173913</v>
+        <v>0.4308510638297872</v>
       </c>
       <c r="K13">
-        <v>0.5597826086956522</v>
+        <v>0.3829787234042553</v>
       </c>
       <c r="L13">
-        <v>0.483695652173913</v>
+        <v>0.4574468085106383</v>
       </c>
       <c r="M13">
-        <v>0.4891304347826087</v>
+        <v>0.4361702127659575</v>
       </c>
       <c r="N13">
-        <v>0.5271739130434783</v>
+        <v>0.4840425531914894</v>
       </c>
       <c r="O13">
-        <v>0.4891304347826087</v>
+        <v>0.5319148936170213</v>
       </c>
       <c r="P13">
-        <v>0.3549186595301492</v>
+        <v>0.5015625</v>
       </c>
       <c r="Q13">
-        <v>0.01109120811031716</v>
+        <v>0.5034375</v>
       </c>
       <c r="R13">
-        <v>0.1070741160650724</v>
+        <v>0.51171875</v>
       </c>
       <c r="S13">
-        <v>-0.04776939910881423</v>
+        <v>0.49953125</v>
       </c>
       <c r="T13">
-        <v>-0.01600113375695417</v>
+        <v>0.51</v>
       </c>
       <c r="U13">
-        <v>0.07251759959923015</v>
+        <v>0.50515625</v>
       </c>
       <c r="V13">
-        <v>-0.0222170221741767</v>
+        <v>0.50328125</v>
       </c>
       <c r="W13">
-        <v>-0.02330134205183637</v>
+        <v>0.50109375</v>
       </c>
       <c r="X13">
-        <v>0.02702230600891187</v>
+        <v>-1.292061170212767</v>
       </c>
       <c r="Y13">
-        <v>-0.008595459698895247</v>
+        <v>-0.04037691156914897</v>
       </c>
       <c r="Z13">
-        <v>16.29666011787819</v>
+        <v>-0.01220079787234046</v>
       </c>
       <c r="AA13">
-        <v>0.5092706286836935</v>
+        <v>-0.003437499999999982</v>
       </c>
       <c r="AB13">
-        <v>0.5073673870333988</v>
+        <v>-0.08086768617021278</v>
       </c>
       <c r="AC13">
-        <v>0.5299607072691552</v>
+        <v>-0.1165525265957447</v>
       </c>
       <c r="AD13">
-        <v>0.50049115913556</v>
+        <v>-0.05255319148936172</v>
       </c>
       <c r="AE13">
-        <v>0.4852652259332024</v>
+        <v>-0.06898603723404251</v>
       </c>
       <c r="AF13">
-        <v>0.5142436149312377</v>
+        <v>-0.01923869680851065</v>
       </c>
       <c r="AG13">
-        <v>0.518172888015717</v>
+        <v>0.03082114361702126</v>
       </c>
       <c r="AH13">
-        <v>0.519155206286837</v>
+        <v>16.20194174757281</v>
       </c>
       <c r="AI13">
-        <v>0.4995088408644401</v>
+        <v>0.5063106796116504</v>
       </c>
       <c r="AJ13">
-        <v>0.09464422994789246</v>
+        <v>0.5072815533980582</v>
       </c>
       <c r="AK13">
-        <v>0.002957632185871639</v>
+        <v>0.5053398058252427</v>
       </c>
       <c r="AL13">
-        <v>0.09045869992312294</v>
+        <v>0.5101941747572816</v>
       </c>
       <c r="AM13">
-        <v>-0.06256940292132912</v>
+        <v>0.4990291262135922</v>
       </c>
       <c r="AN13">
-        <v>-0.01679550696164694</v>
+        <v>0.5063106796116504</v>
       </c>
       <c r="AO13">
-        <v>0.07451738276244985</v>
+        <v>0.5121359223300971</v>
       </c>
       <c r="AP13">
-        <v>-0.03054796275732469</v>
+        <v>0.5199029126213592</v>
       </c>
       <c r="AQ13">
-        <v>-0.02904245323310833</v>
+        <v>0.4902912621359223</v>
       </c>
       <c r="AR13">
-        <v>0.008018706756641292</v>
+        <v>-1.35087791778558</v>
       </c>
       <c r="AS13">
-        <v>-0.01037840608183138</v>
+        <v>-0.04221493493079936</v>
       </c>
       <c r="AT13">
-        <v>34</v>
+        <v>-0.01791985127039869</v>
       </c>
       <c r="AU13">
-        <v>0.7083333333333334</v>
+        <v>-0.005339805825242738</v>
+      </c>
+      <c r="AV13">
+        <v>-0.07934311092749435</v>
+      </c>
+      <c r="AW13">
+        <v>-0.1160504028093369</v>
+      </c>
+      <c r="AX13">
+        <v>-0.04886387110101215</v>
+      </c>
+      <c r="AY13">
+        <v>-0.07596570956413962</v>
+      </c>
+      <c r="AZ13">
+        <v>-0.03586035942986987</v>
+      </c>
+      <c r="BA13">
+        <v>0.04162363148109893</v>
+      </c>
+      <c r="BB13">
+        <v>42</v>
+      </c>
+      <c r="BC13">
+        <v>0.875</v>
       </c>
     </row>
-    <row r="14" spans="1:47">
+    <row r="14" spans="1:55">
       <c r="A14" s="1" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="B14" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="C14">
         <v>63</v>
       </c>
       <c r="D14">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="E14">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>16.53448275862069</v>
+        <v>16.0655737704918</v>
       </c>
       <c r="G14">
-        <v>0.5167025862068966</v>
+        <v>0.5020491803278688</v>
       </c>
       <c r="H14">
-        <v>0.4655172413793103</v>
+        <v>0.5</v>
       </c>
       <c r="I14">
-        <v>0.5431034482758621</v>
+        <v>0.430327868852459</v>
       </c>
       <c r="J14">
-        <v>0.4655172413793103</v>
+        <v>0.5532786885245902</v>
       </c>
       <c r="K14">
-        <v>0.5431034482758621</v>
+        <v>0.4836065573770492</v>
       </c>
       <c r="L14">
-        <v>0.5431034482758621</v>
+        <v>0.5</v>
       </c>
       <c r="M14">
-        <v>0.5431034482758621</v>
+        <v>0.5245901639344263</v>
       </c>
       <c r="N14">
-        <v>0.5474137931034483</v>
+        <v>0.5245901639344263</v>
       </c>
       <c r="O14">
-        <v>0.4827586206896552</v>
+        <v>0.5</v>
       </c>
       <c r="P14">
-        <v>0.4980970703247536</v>
+        <v>0.5015625</v>
       </c>
       <c r="Q14">
-        <v>0.01556553344764855</v>
+        <v>0.5034375</v>
       </c>
       <c r="R14">
-        <v>-0.02523472951213901</v>
+        <v>0.51171875</v>
       </c>
       <c r="S14">
-        <v>0.02794274481922177</v>
+        <v>0.49953125</v>
       </c>
       <c r="T14">
-        <v>-0.03417954455155686</v>
+        <v>0.51</v>
       </c>
       <c r="U14">
-        <v>0.05583843917944004</v>
+        <v>0.50515625</v>
       </c>
       <c r="V14">
-        <v>0.03719077392777237</v>
+        <v>0.50328125</v>
       </c>
       <c r="W14">
-        <v>0.03067167144141703</v>
+        <v>0.50109375</v>
       </c>
       <c r="X14">
-        <v>0.04726218606888188</v>
+        <v>-0.07755122950819882</v>
       </c>
       <c r="Y14">
-        <v>-0.01496727379184876</v>
+        <v>-0.002423475922131213</v>
       </c>
       <c r="Z14">
-        <v>16.29666011787819</v>
+        <v>-0.001562500000000022</v>
       </c>
       <c r="AA14">
-        <v>0.5092706286836935</v>
+        <v>-0.07310963114754099</v>
       </c>
       <c r="AB14">
-        <v>0.5073673870333988</v>
+        <v>0.04155993852459017</v>
       </c>
       <c r="AC14">
-        <v>0.5299607072691552</v>
+        <v>-0.01592469262295082</v>
       </c>
       <c r="AD14">
-        <v>0.50049115913556</v>
+        <v>-0.01000000000000001</v>
       </c>
       <c r="AE14">
-        <v>0.4852652259332024</v>
+        <v>0.01943391393442628</v>
       </c>
       <c r="AF14">
-        <v>0.5142436149312377</v>
+        <v>0.02130891393442624</v>
       </c>
       <c r="AG14">
-        <v>0.518172888015717</v>
+        <v>-0.001093750000000004</v>
       </c>
       <c r="AH14">
-        <v>0.519155206286837</v>
+        <v>16.20194174757281</v>
       </c>
       <c r="AI14">
-        <v>0.4995088408644401</v>
+        <v>0.5063106796116504</v>
       </c>
       <c r="AJ14">
-        <v>0.2378226407424968</v>
+        <v>0.5072815533980582</v>
       </c>
       <c r="AK14">
-        <v>0.007431957523203025</v>
+        <v>0.5053398058252427</v>
       </c>
       <c r="AL14">
-        <v>-0.04185014565408846</v>
+        <v>0.5101941747572816</v>
       </c>
       <c r="AM14">
-        <v>0.01314274100670687</v>
+        <v>0.4990291262135922</v>
       </c>
       <c r="AN14">
-        <v>-0.03497391775624964</v>
+        <v>0.5063106796116504</v>
       </c>
       <c r="AO14">
-        <v>0.05783822234265973</v>
+        <v>0.5121359223300971</v>
       </c>
       <c r="AP14">
-        <v>0.02885983334462439</v>
+        <v>0.5199029126213592</v>
       </c>
       <c r="AQ14">
-        <v>0.02493056026014506</v>
+        <v>0.4902912621359223</v>
       </c>
       <c r="AR14">
-        <v>0.02825858681661131</v>
+        <v>-0.1363679770810116</v>
       </c>
       <c r="AS14">
-        <v>-0.01675022017478489</v>
+        <v>-0.004261499283781611</v>
       </c>
       <c r="AT14">
-        <v>44</v>
+        <v>-0.007281553398058249</v>
       </c>
       <c r="AU14">
-        <v>0.6984126984126984</v>
+        <v>-0.07501193697278374</v>
+      </c>
+      <c r="AV14">
+        <v>0.0430845137673086</v>
+      </c>
+      <c r="AW14">
+        <v>-0.01542256883654308</v>
+      </c>
+      <c r="AX14">
+        <v>-0.006310679611650438</v>
+      </c>
+      <c r="AY14">
+        <v>0.01245424160432917</v>
+      </c>
+      <c r="AZ14">
+        <v>0.00468725131306702</v>
+      </c>
+      <c r="BA14">
+        <v>0.009708737864077666</v>
+      </c>
+      <c r="BB14">
+        <v>50</v>
+      </c>
+      <c r="BC14">
+        <v>0.7936507936507936</v>
       </c>
     </row>
-    <row r="15" spans="1:47">
+    <row r="15" spans="1:55">
       <c r="A15" s="1" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="B15" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="C15">
         <v>80</v>
       </c>
       <c r="D15">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>16.32467532467533</v>
+        <v>16.26923076923077</v>
       </c>
       <c r="G15">
-        <v>0.5101461038961039</v>
+        <v>0.5084134615384616</v>
       </c>
       <c r="H15">
-        <v>0.4967532467532468</v>
+        <v>0.5192307692307693</v>
       </c>
       <c r="I15">
-        <v>0.5454545454545454</v>
+        <v>0.4807692307692308</v>
       </c>
       <c r="J15">
-        <v>0.5</v>
+        <v>0.532051282051282</v>
       </c>
       <c r="K15">
-        <v>0.487012987012987</v>
+        <v>0.5288461538461539</v>
       </c>
       <c r="L15">
-        <v>0.474025974025974</v>
+        <v>0.5480769230769231</v>
       </c>
       <c r="M15">
-        <v>0.5194805194805194</v>
+        <v>0.5416666666666666</v>
       </c>
       <c r="N15">
-        <v>0.5487012987012987</v>
+        <v>0.4583333333333333</v>
       </c>
       <c r="O15">
-        <v>0.5097402597402597</v>
+        <v>0.4583333333333333</v>
       </c>
       <c r="P15">
-        <v>0.288289636379389</v>
+        <v>0.5015625</v>
       </c>
       <c r="Q15">
-        <v>0.009009051136855906</v>
+        <v>0.5034375</v>
       </c>
       <c r="R15">
-        <v>0.006001275861797439</v>
+        <v>0.51171875</v>
       </c>
       <c r="S15">
-        <v>0.03029384199790508</v>
+        <v>0.49953125</v>
       </c>
       <c r="T15">
-        <v>0.0003032140691328067</v>
+        <v>0.51</v>
       </c>
       <c r="U15">
-        <v>-0.0002520220834350551</v>
+        <v>0.50515625</v>
       </c>
       <c r="V15">
-        <v>-0.03188670032211571</v>
+        <v>0.50328125</v>
       </c>
       <c r="W15">
-        <v>0.007048742646074357</v>
+        <v>0.50109375</v>
       </c>
       <c r="X15">
-        <v>0.04854969166673229</v>
+        <v>0.1261057692307688</v>
       </c>
       <c r="Y15">
-        <v>0.01201436525875577</v>
+        <v>0.003940805288461524</v>
       </c>
       <c r="Z15">
-        <v>16.29666011787819</v>
+        <v>0.01766826923076925</v>
       </c>
       <c r="AA15">
-        <v>0.5092706286836935</v>
+        <v>-0.0226682692307692</v>
       </c>
       <c r="AB15">
-        <v>0.5073673870333988</v>
+        <v>0.02033253205128205</v>
       </c>
       <c r="AC15">
-        <v>0.5299607072691552</v>
+        <v>0.02931490384615387</v>
       </c>
       <c r="AD15">
-        <v>0.50049115913556</v>
+        <v>0.03807692307692312</v>
       </c>
       <c r="AE15">
-        <v>0.4852652259332024</v>
+        <v>0.03651041666666666</v>
       </c>
       <c r="AF15">
-        <v>0.5142436149312377</v>
+        <v>-0.0449479166666667</v>
       </c>
       <c r="AG15">
-        <v>0.518172888015717</v>
+        <v>-0.04276041666666669</v>
       </c>
       <c r="AH15">
-        <v>0.519155206286837</v>
+        <v>16.20194174757281</v>
       </c>
       <c r="AI15">
-        <v>0.4995088408644401</v>
+        <v>0.5063106796116504</v>
       </c>
       <c r="AJ15">
-        <v>0.02801520679713221</v>
+        <v>0.5072815533980582</v>
       </c>
       <c r="AK15">
-        <v>0.0008754752124103815</v>
+        <v>0.5053398058252427</v>
       </c>
       <c r="AL15">
-        <v>-0.01061414028015201</v>
+        <v>0.5101941747572816</v>
       </c>
       <c r="AM15">
-        <v>0.01549383818539019</v>
+        <v>0.4990291262135922</v>
       </c>
       <c r="AN15">
-        <v>-0.0004911591355599709</v>
+        <v>0.5063106796116504</v>
       </c>
       <c r="AO15">
-        <v>0.001747761079784638</v>
+        <v>0.5121359223300971</v>
       </c>
       <c r="AP15">
-        <v>-0.0402176409052637</v>
+        <v>0.5199029126213592</v>
       </c>
       <c r="AQ15">
-        <v>0.001307631464802395</v>
+        <v>0.4902912621359223</v>
       </c>
       <c r="AR15">
-        <v>0.02954609241446171</v>
+        <v>0.06728902165795603</v>
       </c>
       <c r="AS15">
-        <v>0.01023141887581963</v>
+        <v>0.002102781926811126</v>
       </c>
       <c r="AT15">
-        <v>61</v>
+        <v>0.01194921583271102</v>
       </c>
       <c r="AU15">
-        <v>0.7625</v>
+        <v>-0.02457057505601196</v>
+      </c>
+      <c r="AV15">
+        <v>0.02185710729400048</v>
+      </c>
+      <c r="AW15">
+        <v>0.02981702763256161</v>
+      </c>
+      <c r="AX15">
+        <v>0.04176624346527269</v>
+      </c>
+      <c r="AY15">
+        <v>0.02953074433656955</v>
+      </c>
+      <c r="AZ15">
+        <v>-0.06156957928802592</v>
+      </c>
+      <c r="BA15">
+        <v>-0.03195792880258902</v>
+      </c>
+      <c r="BB15">
+        <v>62</v>
+      </c>
+      <c r="BC15">
+        <v>0.775</v>
       </c>
     </row>
-    <row r="16" spans="1:47">
+    <row r="16" spans="1:55">
       <c r="A16" s="1" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="B16" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="C16">
         <v>92</v>
       </c>
       <c r="D16">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F16">
-        <v>16.35164835164835</v>
+        <v>16.30232558139535</v>
       </c>
       <c r="G16">
-        <v>0.5109890109890109</v>
+        <v>0.5094476744186046</v>
       </c>
       <c r="H16">
-        <v>0.521978021978022</v>
+        <v>0.4883720930232558</v>
       </c>
       <c r="I16">
-        <v>0.5</v>
+        <v>0.5319767441860465</v>
       </c>
       <c r="J16">
-        <v>0.5659340659340659</v>
+        <v>0.5232558139534884</v>
       </c>
       <c r="K16">
-        <v>0.4725274725274725</v>
+        <v>0.5203488372093024</v>
       </c>
       <c r="L16">
-        <v>0.4972527472527473</v>
+        <v>0.4883720930232558</v>
       </c>
       <c r="M16">
-        <v>0.5302197802197802</v>
+        <v>0.4534883720930232</v>
       </c>
       <c r="N16">
-        <v>0.489010989010989</v>
+        <v>0.5348837209302325</v>
       </c>
       <c r="O16">
-        <v>0.5109890109890109</v>
+        <v>0.5348837209302325</v>
       </c>
       <c r="P16">
-        <v>0.3152626633524136</v>
+        <v>0.5015625</v>
       </c>
       <c r="Q16">
-        <v>0.009851958229762925</v>
+        <v>0.5034375</v>
       </c>
       <c r="R16">
-        <v>0.03122605108657267</v>
+        <v>0.51171875</v>
       </c>
       <c r="S16">
-        <v>-0.01516070345664033</v>
+        <v>0.49953125</v>
       </c>
       <c r="T16">
-        <v>0.06623728000319873</v>
+        <v>0.51</v>
       </c>
       <c r="U16">
-        <v>-0.01473753656894955</v>
+        <v>0.50515625</v>
       </c>
       <c r="V16">
-        <v>-0.008659927095342468</v>
+        <v>0.50328125</v>
       </c>
       <c r="W16">
-        <v>0.01778800338533515</v>
+        <v>0.50109375</v>
       </c>
       <c r="X16">
-        <v>-0.01114061802357741</v>
+        <v>0.1592005813953463</v>
       </c>
       <c r="Y16">
-        <v>0.013263116507507</v>
+        <v>0.004975018168604572</v>
       </c>
       <c r="Z16">
-        <v>16.29666011787819</v>
+        <v>-0.01319040697674423</v>
       </c>
       <c r="AA16">
-        <v>0.5092706286836935</v>
+        <v>0.02853924418604648</v>
       </c>
       <c r="AB16">
-        <v>0.5073673870333988</v>
+        <v>0.01153706395348841</v>
       </c>
       <c r="AC16">
-        <v>0.5299607072691552</v>
+        <v>0.02081758720930238</v>
       </c>
       <c r="AD16">
-        <v>0.50049115913556</v>
+        <v>-0.02162790697674422</v>
       </c>
       <c r="AE16">
-        <v>0.4852652259332024</v>
+        <v>-0.05166787790697674</v>
       </c>
       <c r="AF16">
-        <v>0.5142436149312377</v>
+        <v>0.0316024709302325</v>
       </c>
       <c r="AG16">
-        <v>0.518172888015717</v>
+        <v>0.0337899709302325</v>
       </c>
       <c r="AH16">
-        <v>0.519155206286837</v>
+        <v>16.20194174757281</v>
       </c>
       <c r="AI16">
-        <v>0.4995088408644401</v>
+        <v>0.5063106796116504</v>
       </c>
       <c r="AJ16">
-        <v>0.05498823377015682</v>
+        <v>0.5072815533980582</v>
       </c>
       <c r="AK16">
-        <v>0.001718382305317401</v>
+        <v>0.5053398058252427</v>
       </c>
       <c r="AL16">
-        <v>0.01461063494462322</v>
+        <v>0.5101941747572816</v>
       </c>
       <c r="AM16">
-        <v>-0.02996070726915523</v>
+        <v>0.4990291262135922</v>
       </c>
       <c r="AN16">
-        <v>0.06544290679850595</v>
+        <v>0.5063106796116504</v>
       </c>
       <c r="AO16">
-        <v>-0.01273775340572986</v>
+        <v>0.5121359223300971</v>
       </c>
       <c r="AP16">
-        <v>-0.01699086767849045</v>
+        <v>0.5199029126213592</v>
       </c>
       <c r="AQ16">
-        <v>0.01204689220406319</v>
+        <v>0.4902912621359223</v>
       </c>
       <c r="AR16">
-        <v>-0.03014421727584798</v>
+        <v>0.1003838338225336</v>
       </c>
       <c r="AS16">
-        <v>0.01148017012457087</v>
+        <v>0.003136994806954174</v>
       </c>
       <c r="AT16">
-        <v>74</v>
+        <v>-0.01890946037480246</v>
       </c>
       <c r="AU16">
-        <v>0.8043478260869565</v>
+        <v>0.02663693836080372</v>
+      </c>
+      <c r="AV16">
+        <v>0.01306163919620684</v>
+      </c>
+      <c r="AW16">
+        <v>0.02131971099571012</v>
+      </c>
+      <c r="AX16">
+        <v>-0.01793858658839464</v>
+      </c>
+      <c r="AY16">
+        <v>-0.05864755023707385</v>
+      </c>
+      <c r="AZ16">
+        <v>0.01498080830887327</v>
+      </c>
+      <c r="BA16">
+        <v>0.04459245879431017</v>
+      </c>
+      <c r="BB16">
+        <v>66</v>
+      </c>
+      <c r="BC16">
+        <v>0.7173913043478261</v>
       </c>
     </row>
   </sheetData>

--- a/resultados_escritura_academica.xlsx
+++ b/resultados_escritura_academica.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="76">
   <si>
     <t>FACULTAD</t>
   </si>
@@ -22,160 +22,166 @@
     <t>INSCRITOS</t>
   </si>
   <si>
-    <t>SI_EA</t>
-  </si>
-  <si>
-    <t>NO_EA</t>
-  </si>
-  <si>
-    <t>PUNTAJE_TOTAL_PROMEDIO</t>
-  </si>
-  <si>
-    <t>PORCENTAJE_DE_LOGRO_PROMEDIO</t>
-  </si>
-  <si>
-    <t>PORCENTAJE_PROMEDIO_DIM_1</t>
-  </si>
-  <si>
-    <t>PORCENTAJE_PROMEDIO_DIM_2</t>
-  </si>
-  <si>
-    <t>PORCENTAJE_PROMEDIO_DIM_3</t>
-  </si>
-  <si>
-    <t>PORCENTAJE_PROMEDIO_DIM_4</t>
-  </si>
-  <si>
-    <t>PORCENTAJE_PROMEDIO_DIM_5</t>
-  </si>
-  <si>
-    <t>PORCENTAJE_PROMEDIO_DIM_6</t>
-  </si>
-  <si>
-    <t>PORCENTAJE_PROMEDIO_DIM_7</t>
-  </si>
-  <si>
-    <t>PORCENTAJE_PROMEDIO_DIM_8</t>
-  </si>
-  <si>
-    <t>PORCENTAJE_PROMEDIO_DIM_1_USACH</t>
-  </si>
-  <si>
-    <t>PORCENTAJE_PROMEDIO_DIM_2_USACH</t>
-  </si>
-  <si>
-    <t>PORCENTAJE_PROMEDIO_DIM_3_USACH</t>
-  </si>
-  <si>
-    <t>PORCENTAJE_PROMEDIO_DIM_4_USACH</t>
-  </si>
-  <si>
-    <t>PORCENTAJE_PROMEDIO_DIM_5_USACH</t>
-  </si>
-  <si>
-    <t>PORCENTAJE_PROMEDIO_DIM_6_USACH</t>
-  </si>
-  <si>
-    <t>PORCENTAJE_PROMEDIO_DIM_7_USACH</t>
-  </si>
-  <si>
-    <t>PORCENTAJE_PROMEDIO_DIM_8_USACH</t>
-  </si>
-  <si>
-    <t>DIFERENCIA_PUNTAJE_TOTAL_USACH</t>
-  </si>
-  <si>
-    <t>DIFERENCIA_PORCENTAJE_DE_LOGRO_USACH</t>
-  </si>
-  <si>
-    <t>DIFERENCIA_PROMEDIO_DIM_1_USACH</t>
-  </si>
-  <si>
-    <t>DIFERENCIA_PROMEDIO_DIM_2_USACH</t>
-  </si>
-  <si>
-    <t>DIFERENCIA_PROMEDIO_DIM_3_USACH</t>
-  </si>
-  <si>
-    <t>DIFERENCIA_PROMEDIO_DIM_4_USACH</t>
-  </si>
-  <si>
-    <t>DIFERENCIA_PROMEDIO_DIM_5_USACH</t>
-  </si>
-  <si>
-    <t>DIFERENCIA_PROMEDIO_DIM_6_USACH</t>
-  </si>
-  <si>
-    <t>DIFERENCIA_PROMEDIO_DIM_7_USACH</t>
-  </si>
-  <si>
-    <t>DIFERENCIA_PROMEDIO_DIM_8_USACH</t>
-  </si>
-  <si>
-    <t>PUNTAJE_TOTAL_PROMEDIO_FAC</t>
-  </si>
-  <si>
-    <t>PORCENTAJE_DE_LOGRO_PROMEDIO_FAC</t>
-  </si>
-  <si>
-    <t>PORCENTAJE_PROMEDIO_DIM_1_FAC</t>
-  </si>
-  <si>
-    <t>PORCENTAJE_PROMEDIO_DIM_2_FAC</t>
-  </si>
-  <si>
-    <t>PORCENTAJE_PROMEDIO_DIM_3_FAC</t>
-  </si>
-  <si>
-    <t>PORCENTAJE_PROMEDIO_DIM_4_FAC</t>
-  </si>
-  <si>
-    <t>PORCENTAJE_PROMEDIO_DIM_5_FAC</t>
-  </si>
-  <si>
-    <t>PORCENTAJE_PROMEDIO_DIM_6_FAC</t>
-  </si>
-  <si>
-    <t>PORCENTAJE_PROMEDIO_DIM_7_FAC</t>
-  </si>
-  <si>
-    <t>PORCENTAJE_PROMEDIO_DIM_8_FAC</t>
-  </si>
-  <si>
-    <t>DIFERENCIA_PUNTAJE_TOTAL_FAC</t>
-  </si>
-  <si>
-    <t>DIFERENCIA_PORCENTAJE_DE_LOGRO_FAC</t>
-  </si>
-  <si>
-    <t>DIFERENCIA_PROMEDIO_DIM_1_FAC</t>
-  </si>
-  <si>
-    <t>DIFERENCIA_PROMEDIO_DIM_2_FAC</t>
-  </si>
-  <si>
-    <t>DIFERENCIA_PROMEDIO_DIM_3_FAC</t>
-  </si>
-  <si>
-    <t>DIFERENCIA_PROMEDIO_DIM_4_FAC</t>
-  </si>
-  <si>
-    <t>DIFERENCIA_PROMEDIO_DIM_5_FAC</t>
-  </si>
-  <si>
-    <t>DIFERENCIA_PROMEDIO_DIM_6_FAC</t>
-  </si>
-  <si>
-    <t>DIFERENCIA_PROMEDIO_DIM_7_FAC</t>
-  </si>
-  <si>
-    <t>DIFERENCIA_PROMEDIO_DIM_8_FAC</t>
-  </si>
-  <si>
-    <t>ESTUDIANTES_CON_PUNTAJE_BAJO</t>
-  </si>
-  <si>
-    <t>PORCENTAJE_ESTUDIANTES_CON_PUNTAJE_BAJO</t>
+    <t>SI EA</t>
+  </si>
+  <si>
+    <t>NO EA</t>
+  </si>
+  <si>
+    <t>PUNTAJE TOTAL PROMEDIO</t>
+  </si>
+  <si>
+    <t>PORCENTAJE DE LOGRO PROMEDIO</t>
+  </si>
+  <si>
+    <t>PORCENTAJE PROMEDIO DIM 1</t>
+  </si>
+  <si>
+    <t>PORCENTAJE PROMEDIO DIM 2</t>
+  </si>
+  <si>
+    <t>PORCENTAJE PROMEDIO DIM 3</t>
+  </si>
+  <si>
+    <t>PORCENTAJE PROMEDIO DIM 4</t>
+  </si>
+  <si>
+    <t>PORCENTAJE PROMEDIO DIM 5</t>
+  </si>
+  <si>
+    <t>PORCENTAJE PROMEDIO DIM 6</t>
+  </si>
+  <si>
+    <t>PORCENTAJE PROMEDIO DIM 7</t>
+  </si>
+  <si>
+    <t>PORCENTAJE PROMEDIO DIM 8</t>
+  </si>
+  <si>
+    <t>PUNTAJE TOTAL PROMEDIO USACH</t>
+  </si>
+  <si>
+    <t>PORCENTAJE DE LOGRO USACH</t>
+  </si>
+  <si>
+    <t>PORCENTAJE PROMEDIO DIM 1 USACH</t>
+  </si>
+  <si>
+    <t>PORCENTAJE PROMEDIO DIM 2 USACH</t>
+  </si>
+  <si>
+    <t>PORCENTAJE PROMEDIO DIM 3 USACH</t>
+  </si>
+  <si>
+    <t>PORCENTAJE PROMEDIO DIM 4 USACH</t>
+  </si>
+  <si>
+    <t>PORCENTAJE PROMEDIO DIM 5 USACH</t>
+  </si>
+  <si>
+    <t>PORCENTAJE PROMEDIO DIM 6 USACH</t>
+  </si>
+  <si>
+    <t>PORCENTAJE PROMEDIO DIM 7 USACH</t>
+  </si>
+  <si>
+    <t>PORCENTAJE PROMEDIO DIM 8 USACH</t>
+  </si>
+  <si>
+    <t>DIFERENCIA PUNTAJE TOTAL USACH</t>
+  </si>
+  <si>
+    <t>DIFERENCIA PORCENTAJE DE LOGRO USACH</t>
+  </si>
+  <si>
+    <t>DIFERENCIA PROMEDIO DIM 1 USACH</t>
+  </si>
+  <si>
+    <t>DIFERENCIA PROMEDIO DIM 2 USACH</t>
+  </si>
+  <si>
+    <t>DIFERENCIA PROMEDIO DIM 3 USACH</t>
+  </si>
+  <si>
+    <t>DIFERENCIA PROMEDIO DIM 4 USACH</t>
+  </si>
+  <si>
+    <t>DIFERENCIA PROMEDIO DIM 5 USACH</t>
+  </si>
+  <si>
+    <t>DIFERENCIA PROMEDIO DIM 6 USACH</t>
+  </si>
+  <si>
+    <t>DIFERENCIA PROMEDIO DIM 7 USACH</t>
+  </si>
+  <si>
+    <t>DIFERENCIA PROMEDIO DIM 8 USACH</t>
+  </si>
+  <si>
+    <t>PUNTAJE TOTAL PROMEDIO FACULTAD</t>
+  </si>
+  <si>
+    <t>PORCENTAJE DE LOGRO PROMEDIO FACULTAD</t>
+  </si>
+  <si>
+    <t>PORCENTAJE PROMEDIO DIM 1 FACULTAD</t>
+  </si>
+  <si>
+    <t>PORCENTAJE PROMEDIO DIM 2 FACULTAD</t>
+  </si>
+  <si>
+    <t>PORCENTAJE PROMEDIO DIM 3 FACULTAD</t>
+  </si>
+  <si>
+    <t>PORCENTAJE PROMEDIO DIM 4 FACULTAD</t>
+  </si>
+  <si>
+    <t>PORCENTAJE PROMEDIO DIM 5 FACULTAD</t>
+  </si>
+  <si>
+    <t>PORCENTAJE PROMEDIO DIM 6 FACULTAD</t>
+  </si>
+  <si>
+    <t>PORCENTAJE PROMEDIO DIM 7 FACULTAD</t>
+  </si>
+  <si>
+    <t>PORCENTAJE PROMEDIO DIM 8 FACULTAD</t>
+  </si>
+  <si>
+    <t>DIFERENCIA PUNTAJE TOTAL FACULTAD</t>
+  </si>
+  <si>
+    <t>DIFERENCIA PORCENTAJE DE LOGRO FACULTAD</t>
+  </si>
+  <si>
+    <t>DIFERENCIA PROMEDIO DIM 1 FACULTAD</t>
+  </si>
+  <si>
+    <t>DIFERENCIA PROMEDIO DIM 2 FACULTAD</t>
+  </si>
+  <si>
+    <t>DIFERENCIA PROMEDIO DIM 3 FACULTAD</t>
+  </si>
+  <si>
+    <t>DIFERENCIA PROMEDIO DIM 4 FACULTAD</t>
+  </si>
+  <si>
+    <t>DIFERENCIA PROMEDIO DIM 5 FACULTAD</t>
+  </si>
+  <si>
+    <t>DIFERENCIA PROMEDIO DIM 6 FACULTAD</t>
+  </si>
+  <si>
+    <t>DIFERENCIA PROMEDIO DIM 7 FACULTAD</t>
+  </si>
+  <si>
+    <t>DIFERENCIA PROMEDIO DIM 8 FACULTAD</t>
+  </si>
+  <si>
+    <t>ESTUDIANTES CON PUNTAJE BAJO</t>
+  </si>
+  <si>
+    <t>PORCENTAJE ESTUDIANTES CON PUNTAJE BAJO</t>
   </si>
   <si>
     <t>CARRERA</t>
@@ -593,15 +599,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BC16"/>
+  <dimension ref="A1:BE16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:55">
+    <row r="1" spans="1:57">
       <c r="A1" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -765,13 +771,19 @@
       <c r="BC1" s="1" t="s">
         <v>53</v>
       </c>
+      <c r="BD1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BE1" s="1" t="s">
+        <v>55</v>
+      </c>
     </row>
-    <row r="2" spans="1:55">
+    <row r="2" spans="1:57">
       <c r="A2" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C2">
         <v>220</v>
@@ -813,132 +825,138 @@
         <v>0.4890243902439024</v>
       </c>
       <c r="P2">
+        <v>16.143125</v>
+      </c>
+      <c r="Q2">
+        <v>0.50447265625</v>
+      </c>
+      <c r="R2">
         <v>0.5015625</v>
       </c>
-      <c r="Q2">
+      <c r="S2">
         <v>0.5034375</v>
       </c>
-      <c r="R2">
+      <c r="T2">
         <v>0.51171875</v>
       </c>
-      <c r="S2">
+      <c r="U2">
         <v>0.49953125</v>
       </c>
-      <c r="T2">
+      <c r="V2">
         <v>0.51</v>
       </c>
-      <c r="U2">
+      <c r="W2">
         <v>0.50515625</v>
       </c>
-      <c r="V2">
+      <c r="X2">
         <v>0.50328125</v>
       </c>
-      <c r="W2">
+      <c r="Y2">
         <v>0.50109375</v>
       </c>
-      <c r="X2">
+      <c r="Z2">
         <v>0.02760670731707293</v>
       </c>
-      <c r="Y2">
+      <c r="AA2">
         <v>0.0008627096036585291</v>
       </c>
-      <c r="Z2">
+      <c r="AB2">
         <v>-0.0003429878048780699</v>
       </c>
-      <c r="AA2">
+      <c r="AC2">
         <v>0.006318597560975636</v>
       </c>
-      <c r="AB2">
+      <c r="AD2">
         <v>0.01267149390243905</v>
       </c>
-      <c r="AC2">
+      <c r="AE2">
         <v>0.03583460365853663</v>
       </c>
-      <c r="AD2">
+      <c r="AF2">
         <v>-0.02463414634146344</v>
       </c>
-      <c r="AE2">
+      <c r="AG2">
         <v>0.005819359756097597</v>
       </c>
-      <c r="AF2">
+      <c r="AH2">
         <v>-0.01669588414634149</v>
       </c>
-      <c r="AG2">
+      <c r="AI2">
         <v>-0.01206935975609758</v>
       </c>
-      <c r="AH2">
+      <c r="AJ2">
         <v>16.13120567375887</v>
       </c>
-      <c r="AI2">
+      <c r="AK2">
         <v>0.5041001773049646</v>
       </c>
-      <c r="AJ2">
+      <c r="AL2">
         <v>0.5091607565011821</v>
       </c>
-      <c r="AK2">
+      <c r="AM2">
         <v>0.5011820330969267</v>
       </c>
-      <c r="AL2">
+      <c r="AN2">
         <v>0.5070921985815603</v>
       </c>
-      <c r="AM2">
+      <c r="AO2">
         <v>0.4979314420803783</v>
       </c>
-      <c r="AN2">
+      <c r="AP2">
         <v>0.5079787234042553</v>
       </c>
-      <c r="AO2">
+      <c r="AQ2">
         <v>0.5011820330969267</v>
       </c>
-      <c r="AP2">
+      <c r="AR2">
         <v>0.49822695035461</v>
       </c>
-      <c r="AQ2">
+      <c r="AS2">
         <v>0.5100472813238771</v>
       </c>
-      <c r="AR2">
+      <c r="AT2">
         <v>0.03952603355820727</v>
       </c>
-      <c r="AS2">
+      <c r="AU2">
         <v>0.001235188548693977</v>
       </c>
-      <c r="AT2">
+      <c r="AV2">
         <v>-0.007941244306060136</v>
       </c>
-      <c r="AU2">
+      <c r="AW2">
         <v>0.008574064464048958</v>
       </c>
-      <c r="AV2">
+      <c r="AX2">
         <v>0.01729804532087875</v>
       </c>
-      <c r="AW2">
+      <c r="AY2">
         <v>0.03743441157815836</v>
       </c>
-      <c r="AX2">
+      <c r="AZ2">
         <v>-0.02261286974571874</v>
       </c>
-      <c r="AY2">
+      <c r="BA2">
         <v>0.009793576659170911</v>
       </c>
-      <c r="AZ2">
+      <c r="BB2">
         <v>-0.01164158450095143</v>
       </c>
-      <c r="BA2">
+      <c r="BC2">
         <v>-0.02102289107997468</v>
       </c>
-      <c r="BB2">
+      <c r="BD2">
         <v>165</v>
       </c>
-      <c r="BC2">
+      <c r="BE2">
         <v>0.75</v>
       </c>
     </row>
-    <row r="3" spans="1:55">
+    <row r="3" spans="1:57">
       <c r="A3" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B3" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C3">
         <v>91</v>
@@ -980,94 +998,94 @@
         <v>0.5232558139534884</v>
       </c>
       <c r="P3">
+        <v>16.143125</v>
+      </c>
+      <c r="Q3">
+        <v>0.50447265625</v>
+      </c>
+      <c r="R3">
         <v>0.5015625</v>
       </c>
-      <c r="Q3">
+      <c r="S3">
         <v>0.5034375</v>
       </c>
-      <c r="R3">
+      <c r="T3">
         <v>0.51171875</v>
       </c>
-      <c r="S3">
+      <c r="U3">
         <v>0.49953125</v>
       </c>
-      <c r="T3">
+      <c r="V3">
         <v>0.51</v>
       </c>
-      <c r="U3">
+      <c r="W3">
         <v>0.50515625</v>
       </c>
-      <c r="V3">
+      <c r="X3">
         <v>0.50328125</v>
       </c>
-      <c r="W3">
+      <c r="Y3">
         <v>0.50109375</v>
       </c>
-      <c r="X3">
+      <c r="Z3">
         <v>-0.4687063953488391</v>
       </c>
-      <c r="Y3">
+      <c r="AA3">
         <v>-0.01464707485465122</v>
       </c>
-      <c r="Z3">
+      <c r="AB3">
         <v>-0.08586482558139535</v>
       </c>
-      <c r="AA3">
+      <c r="AC3">
         <v>0.008190406976744224</v>
       </c>
-      <c r="AB3">
+      <c r="AD3">
         <v>-0.02625363372093026</v>
       </c>
-      <c r="AC3">
+      <c r="AE3">
         <v>-0.0373219476744186</v>
       </c>
-      <c r="AD3">
+      <c r="AF3">
         <v>0.02779069767441855</v>
       </c>
-      <c r="AE3">
+      <c r="AG3">
         <v>-0.008063226744186025</v>
       </c>
-      <c r="AF3">
+      <c r="AH3">
         <v>-0.01781613372093027</v>
       </c>
-      <c r="AG3">
+      <c r="AI3">
         <v>0.02216206395348841</v>
       </c>
-      <c r="AH3">
+      <c r="AJ3">
         <v>15.67441860465116</v>
       </c>
-      <c r="AI3">
+      <c r="AK3">
         <v>0.4898255813953488</v>
       </c>
-      <c r="AJ3">
+      <c r="AL3">
         <v>0.4156976744186047</v>
       </c>
-      <c r="AK3">
+      <c r="AM3">
         <v>0.5116279069767442</v>
       </c>
-      <c r="AL3">
+      <c r="AN3">
         <v>0.4854651162790697</v>
       </c>
-      <c r="AM3">
+      <c r="AO3">
         <v>0.4622093023255814</v>
       </c>
-      <c r="AN3">
+      <c r="AP3">
         <v>0.5377906976744186</v>
       </c>
-      <c r="AO3">
+      <c r="AQ3">
         <v>0.4970930232558139</v>
       </c>
-      <c r="AP3">
+      <c r="AR3">
         <v>0.4854651162790697</v>
       </c>
-      <c r="AQ3">
+      <c r="AS3">
         <v>0.5232558139534884</v>
-      </c>
-      <c r="AR3">
-        <v>0</v>
-      </c>
-      <c r="AS3">
-        <v>0</v>
       </c>
       <c r="AT3">
         <v>0</v>
@@ -1094,18 +1112,24 @@
         <v>0</v>
       </c>
       <c r="BB3">
+        <v>0</v>
+      </c>
+      <c r="BC3">
+        <v>0</v>
+      </c>
+      <c r="BD3">
         <v>73</v>
       </c>
-      <c r="BC3">
+      <c r="BE3">
         <v>0.8021978021978022</v>
       </c>
     </row>
-    <row r="4" spans="1:55">
+    <row r="4" spans="1:57">
       <c r="A4" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B4" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C4">
         <v>159</v>
@@ -1147,94 +1171,94 @@
         <v>0.4754901960784313</v>
       </c>
       <c r="P4">
+        <v>16.143125</v>
+      </c>
+      <c r="Q4">
+        <v>0.50447265625</v>
+      </c>
+      <c r="R4">
         <v>0.5015625</v>
       </c>
-      <c r="Q4">
+      <c r="S4">
         <v>0.5034375</v>
       </c>
-      <c r="R4">
+      <c r="T4">
         <v>0.51171875</v>
       </c>
-      <c r="S4">
+      <c r="U4">
         <v>0.49953125</v>
       </c>
-      <c r="T4">
+      <c r="V4">
         <v>0.51</v>
       </c>
-      <c r="U4">
+      <c r="W4">
         <v>0.50515625</v>
       </c>
-      <c r="V4">
+      <c r="X4">
         <v>0.50328125</v>
       </c>
-      <c r="W4">
+      <c r="Y4">
         <v>0.50109375</v>
       </c>
-      <c r="X4">
+      <c r="Z4">
         <v>0.1313848039215664</v>
       </c>
-      <c r="Y4">
+      <c r="AA4">
         <v>0.004105775122548949</v>
       </c>
-      <c r="Z4">
+      <c r="AB4">
         <v>-0.01300040849673206</v>
       </c>
-      <c r="AA4">
+      <c r="AC4">
         <v>0.001464460784313726</v>
       </c>
-      <c r="AB4">
+      <c r="AD4">
         <v>0.04547079248366015</v>
       </c>
-      <c r="AC4">
+      <c r="AE4">
         <v>0.03151450163398695</v>
       </c>
-      <c r="AD4">
+      <c r="AF4">
         <v>0.007973856209150365</v>
       </c>
-      <c r="AE4">
+      <c r="AG4">
         <v>0.003013684640522873</v>
       </c>
-      <c r="AF4">
+      <c r="AH4">
         <v>-0.01798713235294119</v>
       </c>
-      <c r="AG4">
+      <c r="AI4">
         <v>-0.02560355392156866</v>
       </c>
-      <c r="AH4">
+      <c r="AJ4">
         <v>16.27450980392157</v>
       </c>
-      <c r="AI4">
+      <c r="AK4">
         <v>0.508578431372549</v>
       </c>
-      <c r="AJ4">
+      <c r="AL4">
         <v>0.488562091503268</v>
       </c>
-      <c r="AK4">
+      <c r="AM4">
         <v>0.5049019607843137</v>
       </c>
-      <c r="AL4">
+      <c r="AN4">
         <v>0.5571895424836601</v>
       </c>
-      <c r="AM4">
+      <c r="AO4">
         <v>0.5310457516339869</v>
       </c>
-      <c r="AN4">
+      <c r="AP4">
         <v>0.5179738562091504</v>
       </c>
-      <c r="AO4">
+      <c r="AQ4">
         <v>0.5081699346405228</v>
       </c>
-      <c r="AP4">
+      <c r="AR4">
         <v>0.4852941176470588</v>
       </c>
-      <c r="AQ4">
+      <c r="AS4">
         <v>0.4754901960784313</v>
-      </c>
-      <c r="AR4">
-        <v>0</v>
-      </c>
-      <c r="AS4">
-        <v>0</v>
       </c>
       <c r="AT4">
         <v>0</v>
@@ -1261,18 +1285,24 @@
         <v>0</v>
       </c>
       <c r="BB4">
+        <v>0</v>
+      </c>
+      <c r="BC4">
+        <v>0</v>
+      </c>
+      <c r="BD4">
         <v>124</v>
       </c>
-      <c r="BC4">
+      <c r="BE4">
         <v>0.779874213836478</v>
       </c>
     </row>
-    <row r="5" spans="1:55">
+    <row r="5" spans="1:57">
       <c r="A5" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B5" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C5">
         <v>255</v>
@@ -1314,132 +1344,138 @@
         <v>0.5031120331950207</v>
       </c>
       <c r="P5">
+        <v>16.143125</v>
+      </c>
+      <c r="Q5">
+        <v>0.50447265625</v>
+      </c>
+      <c r="R5">
         <v>0.5015625</v>
       </c>
-      <c r="Q5">
+      <c r="S5">
         <v>0.5034375</v>
       </c>
-      <c r="R5">
+      <c r="T5">
         <v>0.51171875</v>
       </c>
-      <c r="S5">
+      <c r="U5">
         <v>0.49953125</v>
       </c>
-      <c r="T5">
+      <c r="V5">
         <v>0.51</v>
       </c>
-      <c r="U5">
+      <c r="W5">
         <v>0.50515625</v>
       </c>
-      <c r="V5">
+      <c r="X5">
         <v>0.50328125</v>
       </c>
-      <c r="W5">
+      <c r="Y5">
         <v>0.50109375</v>
       </c>
-      <c r="X5">
+      <c r="Z5">
         <v>0.006252593360994041</v>
       </c>
-      <c r="Y5">
+      <c r="AA5">
         <v>0.0001953935425310638</v>
       </c>
-      <c r="Z5">
+      <c r="AB5">
         <v>-0.01297328838174278</v>
       </c>
-      <c r="AA5">
+      <c r="AC5">
         <v>0.01523469917012454</v>
       </c>
-      <c r="AB5">
+      <c r="AD5">
         <v>-0.01379343879668049</v>
       </c>
-      <c r="AC5">
+      <c r="AE5">
         <v>0.004618127593360999</v>
       </c>
-      <c r="AD5">
+      <c r="AF5">
         <v>0.01697095435684648</v>
       </c>
-      <c r="AE5">
+      <c r="AG5">
         <v>0.008329227178423215</v>
       </c>
-      <c r="AF5">
+      <c r="AH5">
         <v>-0.01884141597510375</v>
       </c>
-      <c r="AG5">
+      <c r="AI5">
         <v>0.002018283195020731</v>
       </c>
-      <c r="AH5">
+      <c r="AJ5">
         <v>16.13120567375887</v>
       </c>
-      <c r="AI5">
+      <c r="AK5">
         <v>0.5041001773049646</v>
       </c>
-      <c r="AJ5">
+      <c r="AL5">
         <v>0.5091607565011821</v>
       </c>
-      <c r="AK5">
+      <c r="AM5">
         <v>0.5011820330969267</v>
       </c>
-      <c r="AL5">
+      <c r="AN5">
         <v>0.5070921985815603</v>
       </c>
-      <c r="AM5">
+      <c r="AO5">
         <v>0.4979314420803783</v>
       </c>
-      <c r="AN5">
+      <c r="AP5">
         <v>0.5079787234042553</v>
       </c>
-      <c r="AO5">
+      <c r="AQ5">
         <v>0.5011820330969267</v>
       </c>
-      <c r="AP5">
+      <c r="AR5">
         <v>0.49822695035461</v>
       </c>
-      <c r="AQ5">
+      <c r="AS5">
         <v>0.5100472813238771</v>
       </c>
-      <c r="AR5">
+      <c r="AT5">
         <v>0.01817191960212838</v>
       </c>
-      <c r="AS5">
+      <c r="AU5">
         <v>0.000567872487566512</v>
       </c>
-      <c r="AT5">
+      <c r="AV5">
         <v>-0.02057154488292484</v>
       </c>
-      <c r="AU5">
+      <c r="AW5">
         <v>0.01749016607319787</v>
       </c>
-      <c r="AV5">
+      <c r="AX5">
         <v>-0.009166887378240784</v>
       </c>
-      <c r="AW5">
+      <c r="AY5">
         <v>0.00621793551298272</v>
       </c>
-      <c r="AX5">
+      <c r="AZ5">
         <v>0.01899223095259117</v>
       </c>
-      <c r="AY5">
+      <c r="BA5">
         <v>0.01230344408149653</v>
       </c>
-      <c r="AZ5">
+      <c r="BB5">
         <v>-0.01378711632971369</v>
       </c>
-      <c r="BA5">
+      <c r="BC5">
         <v>-0.006935248128856375</v>
       </c>
-      <c r="BB5">
+      <c r="BD5">
         <v>190</v>
       </c>
-      <c r="BC5">
+      <c r="BE5">
         <v>0.7450980392156863</v>
       </c>
     </row>
-    <row r="6" spans="1:55">
+    <row r="6" spans="1:57">
       <c r="A6" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B6" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C6">
         <v>44</v>
@@ -1481,132 +1517,138 @@
         <v>0.5059523809523809</v>
       </c>
       <c r="P6">
+        <v>16.143125</v>
+      </c>
+      <c r="Q6">
+        <v>0.50447265625</v>
+      </c>
+      <c r="R6">
         <v>0.5015625</v>
       </c>
-      <c r="Q6">
+      <c r="S6">
         <v>0.5034375</v>
       </c>
-      <c r="R6">
+      <c r="T6">
         <v>0.51171875</v>
       </c>
-      <c r="S6">
+      <c r="U6">
         <v>0.49953125</v>
       </c>
-      <c r="T6">
+      <c r="V6">
         <v>0.51</v>
       </c>
-      <c r="U6">
+      <c r="W6">
         <v>0.50515625</v>
       </c>
-      <c r="V6">
+      <c r="X6">
         <v>0.50328125</v>
       </c>
-      <c r="W6">
+      <c r="Y6">
         <v>0.50109375</v>
       </c>
-      <c r="X6">
+      <c r="Z6">
         <v>0.8806845238095242</v>
       </c>
-      <c r="Y6">
+      <c r="AA6">
         <v>0.02752139136904763</v>
       </c>
-      <c r="Z6">
+      <c r="AB6">
         <v>0.1293898809523809</v>
       </c>
-      <c r="AA6">
+      <c r="AC6">
         <v>0.03822916666666665</v>
       </c>
-      <c r="AB6">
+      <c r="AD6">
         <v>0.006138392857142905</v>
       </c>
-      <c r="AC6">
+      <c r="AE6">
         <v>-0.06500744047619045</v>
       </c>
-      <c r="AD6">
+      <c r="AF6">
         <v>0.01380952380952383</v>
       </c>
-      <c r="AE6">
+      <c r="AG6">
         <v>0.09008184523809526</v>
       </c>
-      <c r="AF6">
+      <c r="AH6">
         <v>0.002671130952380918</v>
       </c>
-      <c r="AG6">
+      <c r="AI6">
         <v>0.004858630952380927</v>
       </c>
-      <c r="AH6">
+      <c r="AJ6">
         <v>16.13120567375887</v>
       </c>
-      <c r="AI6">
+      <c r="AK6">
         <v>0.5041001773049646</v>
       </c>
-      <c r="AJ6">
+      <c r="AL6">
         <v>0.5091607565011821</v>
       </c>
-      <c r="AK6">
+      <c r="AM6">
         <v>0.5011820330969267</v>
       </c>
-      <c r="AL6">
+      <c r="AN6">
         <v>0.5070921985815603</v>
       </c>
-      <c r="AM6">
+      <c r="AO6">
         <v>0.4979314420803783</v>
       </c>
-      <c r="AN6">
+      <c r="AP6">
         <v>0.5079787234042553</v>
       </c>
-      <c r="AO6">
+      <c r="AQ6">
         <v>0.5011820330969267</v>
       </c>
-      <c r="AP6">
+      <c r="AR6">
         <v>0.49822695035461</v>
       </c>
-      <c r="AQ6">
+      <c r="AS6">
         <v>0.5100472813238771</v>
       </c>
-      <c r="AR6">
+      <c r="AT6">
         <v>0.8926038500506586</v>
       </c>
-      <c r="AS6">
+      <c r="AU6">
         <v>0.02789387031408308</v>
       </c>
-      <c r="AT6">
+      <c r="AV6">
         <v>0.1217916244511988</v>
       </c>
-      <c r="AU6">
+      <c r="AW6">
         <v>0.04048463356973997</v>
       </c>
-      <c r="AV6">
+      <c r="AX6">
         <v>0.01076494427558261</v>
       </c>
-      <c r="AW6">
+      <c r="AY6">
         <v>-0.06340763255656873</v>
       </c>
-      <c r="AX6">
+      <c r="AZ6">
         <v>0.01583080040526852</v>
       </c>
-      <c r="AY6">
+      <c r="BA6">
         <v>0.09405606214116857</v>
       </c>
-      <c r="AZ6">
+      <c r="BB6">
         <v>0.007725430597770977</v>
       </c>
-      <c r="BA6">
+      <c r="BC6">
         <v>-0.00409490037149618</v>
       </c>
-      <c r="BB6">
+      <c r="BD6">
         <v>31</v>
       </c>
-      <c r="BC6">
+      <c r="BE6">
         <v>0.7045454545454546</v>
       </c>
     </row>
-    <row r="7" spans="1:55">
+    <row r="7" spans="1:57">
       <c r="A7" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C7">
         <v>375</v>
@@ -1648,132 +1690,138 @@
         <v>0.5272346368715084</v>
       </c>
       <c r="P7">
+        <v>16.143125</v>
+      </c>
+      <c r="Q7">
+        <v>0.50447265625</v>
+      </c>
+      <c r="R7">
         <v>0.5015625</v>
       </c>
-      <c r="Q7">
+      <c r="S7">
         <v>0.5034375</v>
       </c>
-      <c r="R7">
+      <c r="T7">
         <v>0.51171875</v>
       </c>
-      <c r="S7">
+      <c r="U7">
         <v>0.49953125</v>
       </c>
-      <c r="T7">
+      <c r="V7">
         <v>0.51</v>
       </c>
-      <c r="U7">
+      <c r="W7">
         <v>0.50515625</v>
       </c>
-      <c r="V7">
+      <c r="X7">
         <v>0.50328125</v>
       </c>
-      <c r="W7">
+      <c r="Y7">
         <v>0.50109375</v>
       </c>
-      <c r="X7">
+      <c r="Z7">
         <v>-0.1515048882681569</v>
       </c>
-      <c r="Y7">
+      <c r="AA7">
         <v>-0.004734527758379903</v>
       </c>
-      <c r="Z7">
+      <c r="AB7">
         <v>0.01170565642458099</v>
       </c>
-      <c r="AA7">
+      <c r="AC7">
         <v>-0.02368889664804469</v>
       </c>
-      <c r="AB7">
+      <c r="AD7">
         <v>-0.009623777932960875</v>
       </c>
-      <c r="AC7">
+      <c r="AE7">
         <v>-0.01978264664804469</v>
       </c>
-      <c r="AD7">
+      <c r="AF7">
         <v>-0.003715083798882746</v>
       </c>
-      <c r="AE7">
+      <c r="AG7">
         <v>-0.0288992667597765</v>
       </c>
-      <c r="AF7">
+      <c r="AH7">
         <v>0.009986906424580999</v>
       </c>
-      <c r="AG7">
+      <c r="AI7">
         <v>0.0261408868715084</v>
       </c>
-      <c r="AH7">
+      <c r="AJ7">
         <v>16.13120567375887</v>
       </c>
-      <c r="AI7">
+      <c r="AK7">
         <v>0.5041001773049646</v>
       </c>
-      <c r="AJ7">
+      <c r="AL7">
         <v>0.5091607565011821</v>
       </c>
-      <c r="AK7">
+      <c r="AM7">
         <v>0.5011820330969267</v>
       </c>
-      <c r="AL7">
+      <c r="AN7">
         <v>0.5070921985815603</v>
       </c>
-      <c r="AM7">
+      <c r="AO7">
         <v>0.4979314420803783</v>
       </c>
-      <c r="AN7">
+      <c r="AP7">
         <v>0.5079787234042553</v>
       </c>
-      <c r="AO7">
+      <c r="AQ7">
         <v>0.5011820330969267</v>
       </c>
-      <c r="AP7">
+      <c r="AR7">
         <v>0.49822695035461</v>
       </c>
-      <c r="AQ7">
+      <c r="AS7">
         <v>0.5100472813238771</v>
       </c>
-      <c r="AR7">
+      <c r="AT7">
         <v>-0.1395855620270225</v>
       </c>
-      <c r="AS7">
+      <c r="AU7">
         <v>-0.004362048813344455</v>
       </c>
-      <c r="AT7">
+      <c r="AV7">
         <v>0.004107399923398924</v>
       </c>
-      <c r="AU7">
+      <c r="AW7">
         <v>-0.02143342974497137</v>
       </c>
-      <c r="AV7">
+      <c r="AX7">
         <v>-0.004997226514521169</v>
       </c>
-      <c r="AW7">
+      <c r="AY7">
         <v>-0.01818283872842297</v>
       </c>
-      <c r="AX7">
+      <c r="AZ7">
         <v>-0.001693807203138054</v>
       </c>
-      <c r="AY7">
+      <c r="BA7">
         <v>-0.02492504985670319</v>
       </c>
-      <c r="AZ7">
+      <c r="BB7">
         <v>0.01504120606997106</v>
       </c>
-      <c r="BA7">
+      <c r="BC7">
         <v>0.01718735554763129</v>
       </c>
-      <c r="BB7">
+      <c r="BD7">
         <v>294</v>
       </c>
-      <c r="BC7">
+      <c r="BE7">
         <v>0.784</v>
       </c>
     </row>
-    <row r="8" spans="1:55">
+    <row r="8" spans="1:57">
       <c r="A8" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B8" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C8">
         <v>58</v>
@@ -1815,132 +1863,138 @@
         <v>0.4090909090909091</v>
       </c>
       <c r="P8">
+        <v>16.143125</v>
+      </c>
+      <c r="Q8">
+        <v>0.50447265625</v>
+      </c>
+      <c r="R8">
         <v>0.5015625</v>
       </c>
-      <c r="Q8">
+      <c r="S8">
         <v>0.5034375</v>
       </c>
-      <c r="R8">
+      <c r="T8">
         <v>0.51171875</v>
       </c>
-      <c r="S8">
+      <c r="U8">
         <v>0.49953125</v>
       </c>
-      <c r="T8">
+      <c r="V8">
         <v>0.51</v>
       </c>
-      <c r="U8">
+      <c r="W8">
         <v>0.50515625</v>
       </c>
-      <c r="V8">
+      <c r="X8">
         <v>0.50328125</v>
       </c>
-      <c r="W8">
+      <c r="Y8">
         <v>0.50109375</v>
       </c>
-      <c r="X8">
+      <c r="Z8">
         <v>-0.3067613636363653</v>
       </c>
-      <c r="Y8">
+      <c r="AA8">
         <v>-0.009586292613636416</v>
       </c>
-      <c r="Z8">
+      <c r="AB8">
         <v>-0.006107954545454541</v>
       </c>
-      <c r="AA8">
+      <c r="AC8">
         <v>-0.06252840909090907</v>
       </c>
-      <c r="AB8">
+      <c r="AD8">
         <v>0.0519176136363636</v>
       </c>
-      <c r="AC8">
+      <c r="AE8">
         <v>0.05046875000000006</v>
       </c>
-      <c r="AD8">
+      <c r="AF8">
         <v>0.01727272727272722</v>
       </c>
-      <c r="AE8">
+      <c r="AG8">
         <v>0.0312073863636364</v>
       </c>
-      <c r="AF8">
+      <c r="AH8">
         <v>-0.06691761363636367</v>
       </c>
-      <c r="AG8">
+      <c r="AI8">
         <v>-0.09200284090909089</v>
       </c>
-      <c r="AH8">
+      <c r="AJ8">
         <v>16.20194174757281</v>
       </c>
-      <c r="AI8">
+      <c r="AK8">
         <v>0.5063106796116504</v>
       </c>
-      <c r="AJ8">
+      <c r="AL8">
         <v>0.5072815533980582</v>
       </c>
-      <c r="AK8">
+      <c r="AM8">
         <v>0.5053398058252427</v>
       </c>
-      <c r="AL8">
+      <c r="AN8">
         <v>0.5101941747572816</v>
       </c>
-      <c r="AM8">
+      <c r="AO8">
         <v>0.4990291262135922</v>
       </c>
-      <c r="AN8">
+      <c r="AP8">
         <v>0.5063106796116504</v>
       </c>
-      <c r="AO8">
+      <c r="AQ8">
         <v>0.5121359223300971</v>
       </c>
-      <c r="AP8">
+      <c r="AR8">
         <v>0.5199029126213592</v>
       </c>
-      <c r="AQ8">
+      <c r="AS8">
         <v>0.4902912621359223</v>
       </c>
-      <c r="AR8">
+      <c r="AT8">
         <v>-0.365578111209178</v>
       </c>
-      <c r="AS8">
+      <c r="AU8">
         <v>-0.01142431597528681</v>
       </c>
-      <c r="AT8">
+      <c r="AV8">
         <v>-0.01182700794351277</v>
       </c>
-      <c r="AU8">
+      <c r="AW8">
         <v>-0.06443071491615182</v>
       </c>
-      <c r="AV8">
+      <c r="AX8">
         <v>0.05344218887908203</v>
       </c>
-      <c r="AW8">
+      <c r="AY8">
         <v>0.0509708737864078</v>
       </c>
-      <c r="AX8">
+      <c r="AZ8">
         <v>0.02096204766107679</v>
       </c>
-      <c r="AY8">
+      <c r="BA8">
         <v>0.02422771403353929</v>
       </c>
-      <c r="AZ8">
+      <c r="BB8">
         <v>-0.08353927625772289</v>
       </c>
-      <c r="BA8">
+      <c r="BC8">
         <v>-0.08120035304501322</v>
       </c>
-      <c r="BB8">
+      <c r="BD8">
         <v>46</v>
       </c>
-      <c r="BC8">
+      <c r="BE8">
         <v>0.7931034482758621</v>
       </c>
     </row>
-    <row r="9" spans="1:55">
+    <row r="9" spans="1:57">
       <c r="A9" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B9" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C9">
         <v>41</v>
@@ -1982,132 +2036,138 @@
         <v>0.55625</v>
       </c>
       <c r="P9">
+        <v>16.143125</v>
+      </c>
+      <c r="Q9">
+        <v>0.50447265625</v>
+      </c>
+      <c r="R9">
         <v>0.5015625</v>
       </c>
-      <c r="Q9">
+      <c r="S9">
         <v>0.5034375</v>
       </c>
-      <c r="R9">
+      <c r="T9">
         <v>0.51171875</v>
       </c>
-      <c r="S9">
+      <c r="U9">
         <v>0.49953125</v>
       </c>
-      <c r="T9">
+      <c r="V9">
         <v>0.51</v>
       </c>
-      <c r="U9">
+      <c r="W9">
         <v>0.50515625</v>
       </c>
-      <c r="V9">
+      <c r="X9">
         <v>0.50328125</v>
       </c>
-      <c r="W9">
+      <c r="Y9">
         <v>0.50109375</v>
       </c>
-      <c r="X9">
+      <c r="Z9">
         <v>1.656874999999999</v>
       </c>
-      <c r="Y9">
+      <c r="AA9">
         <v>0.05177734374999998</v>
       </c>
-      <c r="Z9">
+      <c r="AB9">
         <v>0.09218749999999998</v>
       </c>
-      <c r="AA9">
+      <c r="AC9">
         <v>0.05281250000000004</v>
       </c>
-      <c r="AB9">
+      <c r="AD9">
         <v>0.03203124999999996</v>
       </c>
-      <c r="AC9">
+      <c r="AE9">
         <v>-0.04328124999999999</v>
       </c>
-      <c r="AD9">
+      <c r="AF9">
         <v>0.03374999999999995</v>
       </c>
-      <c r="AE9">
+      <c r="AG9">
         <v>0.11984375</v>
       </c>
-      <c r="AF9">
+      <c r="AH9">
         <v>0.07171874999999994</v>
       </c>
-      <c r="AG9">
+      <c r="AI9">
         <v>0.05515625000000002</v>
       </c>
-      <c r="AH9">
+      <c r="AJ9">
         <v>16.20194174757281</v>
       </c>
-      <c r="AI9">
+      <c r="AK9">
         <v>0.5063106796116504</v>
       </c>
-      <c r="AJ9">
+      <c r="AL9">
         <v>0.5072815533980582</v>
       </c>
-      <c r="AK9">
+      <c r="AM9">
         <v>0.5053398058252427</v>
       </c>
-      <c r="AL9">
+      <c r="AN9">
         <v>0.5101941747572816</v>
       </c>
-      <c r="AM9">
+      <c r="AO9">
         <v>0.4990291262135922</v>
       </c>
-      <c r="AN9">
+      <c r="AP9">
         <v>0.5063106796116504</v>
       </c>
-      <c r="AO9">
+      <c r="AQ9">
         <v>0.5121359223300971</v>
       </c>
-      <c r="AP9">
+      <c r="AR9">
         <v>0.5199029126213592</v>
       </c>
-      <c r="AQ9">
+      <c r="AS9">
         <v>0.4902912621359223</v>
       </c>
-      <c r="AR9">
+      <c r="AT9">
         <v>1.598058252427187</v>
       </c>
-      <c r="AS9">
+      <c r="AU9">
         <v>0.04993932038834958</v>
       </c>
-      <c r="AT9">
+      <c r="AV9">
         <v>0.08646844660194175</v>
       </c>
-      <c r="AU9">
+      <c r="AW9">
         <v>0.05091019417475728</v>
       </c>
-      <c r="AV9">
+      <c r="AX9">
         <v>0.03355582524271838</v>
       </c>
-      <c r="AW9">
+      <c r="AY9">
         <v>-0.04277912621359226</v>
       </c>
-      <c r="AX9">
+      <c r="AZ9">
         <v>0.03743932038834952</v>
       </c>
-      <c r="AY9">
+      <c r="BA9">
         <v>0.1128640776699029</v>
       </c>
-      <c r="AZ9">
+      <c r="BB9">
         <v>0.05509708737864072</v>
       </c>
-      <c r="BA9">
+      <c r="BC9">
         <v>0.06595873786407769</v>
       </c>
-      <c r="BB9">
+      <c r="BD9">
         <v>27</v>
       </c>
-      <c r="BC9">
+      <c r="BE9">
         <v>0.6585365853658537</v>
       </c>
     </row>
-    <row r="10" spans="1:55">
+    <row r="10" spans="1:57">
       <c r="A10" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B10" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C10">
         <v>56</v>
@@ -2149,132 +2209,138 @@
         <v>0.5046296296296297</v>
       </c>
       <c r="P10">
+        <v>16.143125</v>
+      </c>
+      <c r="Q10">
+        <v>0.50447265625</v>
+      </c>
+      <c r="R10">
         <v>0.5015625</v>
       </c>
-      <c r="Q10">
+      <c r="S10">
         <v>0.5034375</v>
       </c>
-      <c r="R10">
+      <c r="T10">
         <v>0.51171875</v>
       </c>
-      <c r="S10">
+      <c r="U10">
         <v>0.49953125</v>
       </c>
-      <c r="T10">
+      <c r="V10">
         <v>0.51</v>
       </c>
-      <c r="U10">
+      <c r="W10">
         <v>0.50515625</v>
       </c>
-      <c r="V10">
+      <c r="X10">
         <v>0.50328125</v>
       </c>
-      <c r="W10">
+      <c r="Y10">
         <v>0.50109375</v>
       </c>
-      <c r="X10">
+      <c r="Z10">
         <v>0.3013194444444416</v>
       </c>
-      <c r="Y10">
+      <c r="AA10">
         <v>0.0094162326388888</v>
       </c>
-      <c r="Z10">
+      <c r="AB10">
         <v>-0.01545138888888892</v>
       </c>
-      <c r="AA10">
+      <c r="AC10">
         <v>0.02896990740740746</v>
       </c>
-      <c r="AB10">
+      <c r="AD10">
         <v>-0.01634837962962965</v>
       </c>
-      <c r="AC10">
+      <c r="AE10">
         <v>0.03750578703703711</v>
       </c>
-      <c r="AD10">
+      <c r="AF10">
         <v>-0.01462962962962966</v>
       </c>
-      <c r="AE10">
+      <c r="AG10">
         <v>-0.009785879629629624</v>
       </c>
-      <c r="AF10">
+      <c r="AH10">
         <v>0.06153356481481476</v>
       </c>
-      <c r="AG10">
+      <c r="AI10">
         <v>0.003535879629629646</v>
       </c>
-      <c r="AH10">
+      <c r="AJ10">
         <v>16.20194174757281</v>
       </c>
-      <c r="AI10">
+      <c r="AK10">
         <v>0.5063106796116504</v>
       </c>
-      <c r="AJ10">
+      <c r="AL10">
         <v>0.5072815533980582</v>
       </c>
-      <c r="AK10">
+      <c r="AM10">
         <v>0.5053398058252427</v>
       </c>
-      <c r="AL10">
+      <c r="AN10">
         <v>0.5101941747572816</v>
       </c>
-      <c r="AM10">
+      <c r="AO10">
         <v>0.4990291262135922</v>
       </c>
-      <c r="AN10">
+      <c r="AP10">
         <v>0.5063106796116504</v>
       </c>
-      <c r="AO10">
+      <c r="AQ10">
         <v>0.5121359223300971</v>
       </c>
-      <c r="AP10">
+      <c r="AR10">
         <v>0.5199029126213592</v>
       </c>
-      <c r="AQ10">
+      <c r="AS10">
         <v>0.4902912621359223</v>
       </c>
-      <c r="AR10">
+      <c r="AT10">
         <v>0.2425026968716288</v>
       </c>
-      <c r="AS10">
+      <c r="AU10">
         <v>0.007578209277238401</v>
       </c>
-      <c r="AT10">
+      <c r="AV10">
         <v>-0.02117044228694714</v>
       </c>
-      <c r="AU10">
+      <c r="AW10">
         <v>0.0270676015821647</v>
       </c>
-      <c r="AV10">
+      <c r="AX10">
         <v>-0.01482380438691122</v>
       </c>
-      <c r="AW10">
+      <c r="AY10">
         <v>0.03800791082344485</v>
       </c>
-      <c r="AX10">
+      <c r="AZ10">
         <v>-0.01094030924128009</v>
       </c>
-      <c r="AY10">
+      <c r="BA10">
         <v>-0.01676555195972673</v>
       </c>
-      <c r="AZ10">
+      <c r="BB10">
         <v>0.04491190219345553</v>
       </c>
-      <c r="BA10">
+      <c r="BC10">
         <v>0.01433836749370732</v>
       </c>
-      <c r="BB10">
+      <c r="BD10">
         <v>46</v>
       </c>
-      <c r="BC10">
+      <c r="BE10">
         <v>0.8214285714285714</v>
       </c>
     </row>
-    <row r="11" spans="1:55">
+    <row r="11" spans="1:57">
       <c r="A11" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B11" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C11">
         <v>55</v>
@@ -2316,132 +2382,138 @@
         <v>0.4264705882352941</v>
       </c>
       <c r="P11">
+        <v>16.143125</v>
+      </c>
+      <c r="Q11">
+        <v>0.50447265625</v>
+      </c>
+      <c r="R11">
         <v>0.5015625</v>
       </c>
-      <c r="Q11">
+      <c r="S11">
         <v>0.5034375</v>
       </c>
-      <c r="R11">
+      <c r="T11">
         <v>0.51171875</v>
       </c>
-      <c r="S11">
+      <c r="U11">
         <v>0.49953125</v>
       </c>
-      <c r="T11">
+      <c r="V11">
         <v>0.51</v>
       </c>
-      <c r="U11">
+      <c r="W11">
         <v>0.50515625</v>
       </c>
-      <c r="V11">
+      <c r="X11">
         <v>0.50328125</v>
       </c>
-      <c r="W11">
+      <c r="Y11">
         <v>0.50109375</v>
       </c>
-      <c r="X11">
+      <c r="Z11">
         <v>-0.2803799019607851</v>
       </c>
-      <c r="Y11">
+      <c r="AA11">
         <v>-0.008761871936274535</v>
       </c>
-      <c r="Z11">
+      <c r="AB11">
         <v>0.05235906862745099</v>
       </c>
-      <c r="AA11">
+      <c r="AC11">
         <v>0.02107230392156867</v>
       </c>
-      <c r="AB11">
+      <c r="AD11">
         <v>-0.09505208333333331</v>
       </c>
-      <c r="AC11">
+      <c r="AE11">
         <v>0.005370710784313726</v>
       </c>
-      <c r="AD11">
+      <c r="AF11">
         <v>-0.0001960784313725927</v>
       </c>
-      <c r="AE11">
+      <c r="AG11">
         <v>-0.02476409313725486</v>
       </c>
-      <c r="AF11">
+      <c r="AH11">
         <v>0.04573835784313729</v>
       </c>
-      <c r="AG11">
+      <c r="AI11">
         <v>-0.0746231617647059</v>
       </c>
-      <c r="AH11">
+      <c r="AJ11">
         <v>16.20194174757281</v>
       </c>
-      <c r="AI11">
+      <c r="AK11">
         <v>0.5063106796116504</v>
       </c>
-      <c r="AJ11">
+      <c r="AL11">
         <v>0.5072815533980582</v>
       </c>
-      <c r="AK11">
+      <c r="AM11">
         <v>0.5053398058252427</v>
       </c>
-      <c r="AL11">
+      <c r="AN11">
         <v>0.5101941747572816</v>
       </c>
-      <c r="AM11">
+      <c r="AO11">
         <v>0.4990291262135922</v>
       </c>
-      <c r="AN11">
+      <c r="AP11">
         <v>0.5063106796116504</v>
       </c>
-      <c r="AO11">
+      <c r="AQ11">
         <v>0.5121359223300971</v>
       </c>
-      <c r="AP11">
+      <c r="AR11">
         <v>0.5199029126213592</v>
       </c>
-      <c r="AQ11">
+      <c r="AS11">
         <v>0.4902912621359223</v>
       </c>
-      <c r="AR11">
+      <c r="AT11">
         <v>-0.3391966495335978</v>
       </c>
-      <c r="AS11">
+      <c r="AU11">
         <v>-0.01059989529792493</v>
       </c>
-      <c r="AT11">
+      <c r="AV11">
         <v>0.04664001522939276</v>
       </c>
-      <c r="AU11">
+      <c r="AW11">
         <v>0.01916999809632591</v>
       </c>
-      <c r="AV11">
+      <c r="AX11">
         <v>-0.09352750809061489</v>
       </c>
-      <c r="AW11">
+      <c r="AY11">
         <v>0.005872834570721464</v>
       </c>
-      <c r="AX11">
+      <c r="AZ11">
         <v>0.003493241956976978</v>
       </c>
-      <c r="AY11">
+      <c r="BA11">
         <v>-0.03174376546735197</v>
       </c>
-      <c r="AZ11">
+      <c r="BB11">
         <v>0.02911669522177807</v>
       </c>
-      <c r="BA11">
+      <c r="BC11">
         <v>-0.06382067390062823</v>
       </c>
-      <c r="BB11">
+      <c r="BD11">
         <v>43</v>
       </c>
-      <c r="BC11">
+      <c r="BE11">
         <v>0.7818181818181819</v>
       </c>
     </row>
-    <row r="12" spans="1:55">
+    <row r="12" spans="1:57">
       <c r="A12" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B12" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C12">
         <v>45</v>
@@ -2483,132 +2555,138 @@
         <v>0.5</v>
       </c>
       <c r="P12">
+        <v>16.143125</v>
+      </c>
+      <c r="Q12">
+        <v>0.50447265625</v>
+      </c>
+      <c r="R12">
         <v>0.5015625</v>
       </c>
-      <c r="Q12">
+      <c r="S12">
         <v>0.5034375</v>
       </c>
-      <c r="R12">
+      <c r="T12">
         <v>0.51171875</v>
       </c>
-      <c r="S12">
+      <c r="U12">
         <v>0.49953125</v>
       </c>
-      <c r="T12">
+      <c r="V12">
         <v>0.51</v>
       </c>
-      <c r="U12">
+      <c r="W12">
         <v>0.50515625</v>
       </c>
-      <c r="V12">
+      <c r="X12">
         <v>0.50328125</v>
       </c>
-      <c r="W12">
+      <c r="Y12">
         <v>0.50109375</v>
       </c>
-      <c r="X12">
+      <c r="Z12">
         <v>0.4847819767441841</v>
       </c>
-      <c r="Y12">
+      <c r="AA12">
         <v>0.01514943677325575</v>
       </c>
-      <c r="Z12">
+      <c r="AB12">
         <v>-0.04226017441860469</v>
       </c>
-      <c r="AA12">
+      <c r="AC12">
         <v>0.08377180232558146</v>
       </c>
-      <c r="AB12">
+      <c r="AD12">
         <v>-0.01171875</v>
       </c>
-      <c r="AC12">
+      <c r="AE12">
         <v>-0.02860101744186044</v>
       </c>
-      <c r="AD12">
+      <c r="AF12">
         <v>-0.03325581395348837</v>
       </c>
-      <c r="AE12">
+      <c r="AG12">
         <v>0.05879723837209305</v>
       </c>
-      <c r="AF12">
+      <c r="AH12">
         <v>0.09555595930232552</v>
       </c>
-      <c r="AG12">
+      <c r="AI12">
         <v>-0.001093750000000004</v>
       </c>
-      <c r="AH12">
+      <c r="AJ12">
         <v>16.20194174757281</v>
       </c>
-      <c r="AI12">
+      <c r="AK12">
         <v>0.5063106796116504</v>
       </c>
-      <c r="AJ12">
+      <c r="AL12">
         <v>0.5072815533980582</v>
       </c>
-      <c r="AK12">
+      <c r="AM12">
         <v>0.5053398058252427</v>
       </c>
-      <c r="AL12">
+      <c r="AN12">
         <v>0.5101941747572816</v>
       </c>
-      <c r="AM12">
+      <c r="AO12">
         <v>0.4990291262135922</v>
       </c>
-      <c r="AN12">
+      <c r="AP12">
         <v>0.5063106796116504</v>
       </c>
-      <c r="AO12">
+      <c r="AQ12">
         <v>0.5121359223300971</v>
       </c>
-      <c r="AP12">
+      <c r="AR12">
         <v>0.5199029126213592</v>
       </c>
-      <c r="AQ12">
+      <c r="AS12">
         <v>0.4902912621359223</v>
       </c>
-      <c r="AR12">
+      <c r="AT12">
         <v>0.4259652291713714</v>
       </c>
-      <c r="AS12">
+      <c r="AU12">
         <v>0.01331141341160536</v>
       </c>
-      <c r="AT12">
+      <c r="AV12">
         <v>-0.04797922781666292</v>
       </c>
-      <c r="AU12">
+      <c r="AW12">
         <v>0.0818694965003387</v>
       </c>
-      <c r="AV12">
+      <c r="AX12">
         <v>-0.01019417475728157</v>
       </c>
-      <c r="AW12">
+      <c r="AY12">
         <v>-0.02809889365545271</v>
       </c>
-      <c r="AX12">
+      <c r="AZ12">
         <v>-0.0295664935651388</v>
       </c>
-      <c r="AY12">
+      <c r="BA12">
         <v>0.05181756604199594</v>
       </c>
-      <c r="AZ12">
+      <c r="BB12">
         <v>0.0789342966809663</v>
       </c>
-      <c r="BA12">
+      <c r="BC12">
         <v>0.009708737864077666</v>
       </c>
-      <c r="BB12">
+      <c r="BD12">
         <v>33</v>
       </c>
-      <c r="BC12">
+      <c r="BE12">
         <v>0.7333333333333333</v>
       </c>
     </row>
-    <row r="13" spans="1:55">
+    <row r="13" spans="1:57">
       <c r="A13" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B13" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C13">
         <v>48</v>
@@ -2650,132 +2728,138 @@
         <v>0.5319148936170213</v>
       </c>
       <c r="P13">
+        <v>16.143125</v>
+      </c>
+      <c r="Q13">
+        <v>0.50447265625</v>
+      </c>
+      <c r="R13">
         <v>0.5015625</v>
       </c>
-      <c r="Q13">
+      <c r="S13">
         <v>0.5034375</v>
       </c>
-      <c r="R13">
+      <c r="T13">
         <v>0.51171875</v>
       </c>
-      <c r="S13">
+      <c r="U13">
         <v>0.49953125</v>
       </c>
-      <c r="T13">
+      <c r="V13">
         <v>0.51</v>
       </c>
-      <c r="U13">
+      <c r="W13">
         <v>0.50515625</v>
       </c>
-      <c r="V13">
+      <c r="X13">
         <v>0.50328125</v>
       </c>
-      <c r="W13">
+      <c r="Y13">
         <v>0.50109375</v>
       </c>
-      <c r="X13">
+      <c r="Z13">
         <v>-1.292061170212767</v>
       </c>
-      <c r="Y13">
+      <c r="AA13">
         <v>-0.04037691156914897</v>
       </c>
-      <c r="Z13">
+      <c r="AB13">
         <v>-0.01220079787234046</v>
       </c>
-      <c r="AA13">
+      <c r="AC13">
         <v>-0.003437499999999982</v>
       </c>
-      <c r="AB13">
+      <c r="AD13">
         <v>-0.08086768617021278</v>
       </c>
-      <c r="AC13">
+      <c r="AE13">
         <v>-0.1165525265957447</v>
       </c>
-      <c r="AD13">
+      <c r="AF13">
         <v>-0.05255319148936172</v>
       </c>
-      <c r="AE13">
+      <c r="AG13">
         <v>-0.06898603723404251</v>
       </c>
-      <c r="AF13">
+      <c r="AH13">
         <v>-0.01923869680851065</v>
       </c>
-      <c r="AG13">
+      <c r="AI13">
         <v>0.03082114361702126</v>
       </c>
-      <c r="AH13">
+      <c r="AJ13">
         <v>16.20194174757281</v>
       </c>
-      <c r="AI13">
+      <c r="AK13">
         <v>0.5063106796116504</v>
       </c>
-      <c r="AJ13">
+      <c r="AL13">
         <v>0.5072815533980582</v>
       </c>
-      <c r="AK13">
+      <c r="AM13">
         <v>0.5053398058252427</v>
       </c>
-      <c r="AL13">
+      <c r="AN13">
         <v>0.5101941747572816</v>
       </c>
-      <c r="AM13">
+      <c r="AO13">
         <v>0.4990291262135922</v>
       </c>
-      <c r="AN13">
+      <c r="AP13">
         <v>0.5063106796116504</v>
       </c>
-      <c r="AO13">
+      <c r="AQ13">
         <v>0.5121359223300971</v>
       </c>
-      <c r="AP13">
+      <c r="AR13">
         <v>0.5199029126213592</v>
       </c>
-      <c r="AQ13">
+      <c r="AS13">
         <v>0.4902912621359223</v>
       </c>
-      <c r="AR13">
+      <c r="AT13">
         <v>-1.35087791778558</v>
       </c>
-      <c r="AS13">
+      <c r="AU13">
         <v>-0.04221493493079936</v>
       </c>
-      <c r="AT13">
+      <c r="AV13">
         <v>-0.01791985127039869</v>
       </c>
-      <c r="AU13">
+      <c r="AW13">
         <v>-0.005339805825242738</v>
       </c>
-      <c r="AV13">
+      <c r="AX13">
         <v>-0.07934311092749435</v>
       </c>
-      <c r="AW13">
+      <c r="AY13">
         <v>-0.1160504028093369</v>
       </c>
-      <c r="AX13">
+      <c r="AZ13">
         <v>-0.04886387110101215</v>
       </c>
-      <c r="AY13">
+      <c r="BA13">
         <v>-0.07596570956413962</v>
       </c>
-      <c r="AZ13">
+      <c r="BB13">
         <v>-0.03586035942986987</v>
       </c>
-      <c r="BA13">
+      <c r="BC13">
         <v>0.04162363148109893</v>
       </c>
-      <c r="BB13">
+      <c r="BD13">
         <v>42</v>
       </c>
-      <c r="BC13">
+      <c r="BE13">
         <v>0.875</v>
       </c>
     </row>
-    <row r="14" spans="1:55">
+    <row r="14" spans="1:57">
       <c r="A14" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B14" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C14">
         <v>63</v>
@@ -2817,132 +2901,138 @@
         <v>0.5</v>
       </c>
       <c r="P14">
+        <v>16.143125</v>
+      </c>
+      <c r="Q14">
+        <v>0.50447265625</v>
+      </c>
+      <c r="R14">
         <v>0.5015625</v>
       </c>
-      <c r="Q14">
+      <c r="S14">
         <v>0.5034375</v>
       </c>
-      <c r="R14">
+      <c r="T14">
         <v>0.51171875</v>
       </c>
-      <c r="S14">
+      <c r="U14">
         <v>0.49953125</v>
       </c>
-      <c r="T14">
+      <c r="V14">
         <v>0.51</v>
       </c>
-      <c r="U14">
+      <c r="W14">
         <v>0.50515625</v>
       </c>
-      <c r="V14">
+      <c r="X14">
         <v>0.50328125</v>
       </c>
-      <c r="W14">
+      <c r="Y14">
         <v>0.50109375</v>
       </c>
-      <c r="X14">
+      <c r="Z14">
         <v>-0.07755122950819882</v>
       </c>
-      <c r="Y14">
+      <c r="AA14">
         <v>-0.002423475922131213</v>
       </c>
-      <c r="Z14">
+      <c r="AB14">
         <v>-0.001562500000000022</v>
       </c>
-      <c r="AA14">
+      <c r="AC14">
         <v>-0.07310963114754099</v>
       </c>
-      <c r="AB14">
+      <c r="AD14">
         <v>0.04155993852459017</v>
       </c>
-      <c r="AC14">
+      <c r="AE14">
         <v>-0.01592469262295082</v>
       </c>
-      <c r="AD14">
+      <c r="AF14">
         <v>-0.01000000000000001</v>
       </c>
-      <c r="AE14">
+      <c r="AG14">
         <v>0.01943391393442628</v>
       </c>
-      <c r="AF14">
+      <c r="AH14">
         <v>0.02130891393442624</v>
       </c>
-      <c r="AG14">
+      <c r="AI14">
         <v>-0.001093750000000004</v>
       </c>
-      <c r="AH14">
+      <c r="AJ14">
         <v>16.20194174757281</v>
       </c>
-      <c r="AI14">
+      <c r="AK14">
         <v>0.5063106796116504</v>
       </c>
-      <c r="AJ14">
+      <c r="AL14">
         <v>0.5072815533980582</v>
       </c>
-      <c r="AK14">
+      <c r="AM14">
         <v>0.5053398058252427</v>
       </c>
-      <c r="AL14">
+      <c r="AN14">
         <v>0.5101941747572816</v>
       </c>
-      <c r="AM14">
+      <c r="AO14">
         <v>0.4990291262135922</v>
       </c>
-      <c r="AN14">
+      <c r="AP14">
         <v>0.5063106796116504</v>
       </c>
-      <c r="AO14">
+      <c r="AQ14">
         <v>0.5121359223300971</v>
       </c>
-      <c r="AP14">
+      <c r="AR14">
         <v>0.5199029126213592</v>
       </c>
-      <c r="AQ14">
+      <c r="AS14">
         <v>0.4902912621359223</v>
       </c>
-      <c r="AR14">
+      <c r="AT14">
         <v>-0.1363679770810116</v>
       </c>
-      <c r="AS14">
+      <c r="AU14">
         <v>-0.004261499283781611</v>
       </c>
-      <c r="AT14">
+      <c r="AV14">
         <v>-0.007281553398058249</v>
       </c>
-      <c r="AU14">
+      <c r="AW14">
         <v>-0.07501193697278374</v>
       </c>
-      <c r="AV14">
+      <c r="AX14">
         <v>0.0430845137673086</v>
       </c>
-      <c r="AW14">
+      <c r="AY14">
         <v>-0.01542256883654308</v>
       </c>
-      <c r="AX14">
+      <c r="AZ14">
         <v>-0.006310679611650438</v>
       </c>
-      <c r="AY14">
+      <c r="BA14">
         <v>0.01245424160432917</v>
       </c>
-      <c r="AZ14">
+      <c r="BB14">
         <v>0.00468725131306702</v>
       </c>
-      <c r="BA14">
+      <c r="BC14">
         <v>0.009708737864077666</v>
       </c>
-      <c r="BB14">
+      <c r="BD14">
         <v>50</v>
       </c>
-      <c r="BC14">
+      <c r="BE14">
         <v>0.7936507936507936</v>
       </c>
     </row>
-    <row r="15" spans="1:55">
+    <row r="15" spans="1:57">
       <c r="A15" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B15" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C15">
         <v>80</v>
@@ -2984,132 +3074,138 @@
         <v>0.4583333333333333</v>
       </c>
       <c r="P15">
+        <v>16.143125</v>
+      </c>
+      <c r="Q15">
+        <v>0.50447265625</v>
+      </c>
+      <c r="R15">
         <v>0.5015625</v>
       </c>
-      <c r="Q15">
+      <c r="S15">
         <v>0.5034375</v>
       </c>
-      <c r="R15">
+      <c r="T15">
         <v>0.51171875</v>
       </c>
-      <c r="S15">
+      <c r="U15">
         <v>0.49953125</v>
       </c>
-      <c r="T15">
+      <c r="V15">
         <v>0.51</v>
       </c>
-      <c r="U15">
+      <c r="W15">
         <v>0.50515625</v>
       </c>
-      <c r="V15">
+      <c r="X15">
         <v>0.50328125</v>
       </c>
-      <c r="W15">
+      <c r="Y15">
         <v>0.50109375</v>
       </c>
-      <c r="X15">
+      <c r="Z15">
         <v>0.1261057692307688</v>
       </c>
-      <c r="Y15">
+      <c r="AA15">
         <v>0.003940805288461524</v>
       </c>
-      <c r="Z15">
+      <c r="AB15">
         <v>0.01766826923076925</v>
       </c>
-      <c r="AA15">
+      <c r="AC15">
         <v>-0.0226682692307692</v>
       </c>
-      <c r="AB15">
+      <c r="AD15">
         <v>0.02033253205128205</v>
       </c>
-      <c r="AC15">
+      <c r="AE15">
         <v>0.02931490384615387</v>
       </c>
-      <c r="AD15">
+      <c r="AF15">
         <v>0.03807692307692312</v>
       </c>
-      <c r="AE15">
+      <c r="AG15">
         <v>0.03651041666666666</v>
       </c>
-      <c r="AF15">
+      <c r="AH15">
         <v>-0.0449479166666667</v>
       </c>
-      <c r="AG15">
+      <c r="AI15">
         <v>-0.04276041666666669</v>
       </c>
-      <c r="AH15">
+      <c r="AJ15">
         <v>16.20194174757281</v>
       </c>
-      <c r="AI15">
+      <c r="AK15">
         <v>0.5063106796116504</v>
       </c>
-      <c r="AJ15">
+      <c r="AL15">
         <v>0.5072815533980582</v>
       </c>
-      <c r="AK15">
+      <c r="AM15">
         <v>0.5053398058252427</v>
       </c>
-      <c r="AL15">
+      <c r="AN15">
         <v>0.5101941747572816</v>
       </c>
-      <c r="AM15">
+      <c r="AO15">
         <v>0.4990291262135922</v>
       </c>
-      <c r="AN15">
+      <c r="AP15">
         <v>0.5063106796116504</v>
       </c>
-      <c r="AO15">
+      <c r="AQ15">
         <v>0.5121359223300971</v>
       </c>
-      <c r="AP15">
+      <c r="AR15">
         <v>0.5199029126213592</v>
       </c>
-      <c r="AQ15">
+      <c r="AS15">
         <v>0.4902912621359223</v>
       </c>
-      <c r="AR15">
+      <c r="AT15">
         <v>0.06728902165795603</v>
       </c>
-      <c r="AS15">
+      <c r="AU15">
         <v>0.002102781926811126</v>
       </c>
-      <c r="AT15">
+      <c r="AV15">
         <v>0.01194921583271102</v>
       </c>
-      <c r="AU15">
+      <c r="AW15">
         <v>-0.02457057505601196</v>
       </c>
-      <c r="AV15">
+      <c r="AX15">
         <v>0.02185710729400048</v>
       </c>
-      <c r="AW15">
+      <c r="AY15">
         <v>0.02981702763256161</v>
       </c>
-      <c r="AX15">
+      <c r="AZ15">
         <v>0.04176624346527269</v>
       </c>
-      <c r="AY15">
+      <c r="BA15">
         <v>0.02953074433656955</v>
       </c>
-      <c r="AZ15">
+      <c r="BB15">
         <v>-0.06156957928802592</v>
       </c>
-      <c r="BA15">
+      <c r="BC15">
         <v>-0.03195792880258902</v>
       </c>
-      <c r="BB15">
+      <c r="BD15">
         <v>62</v>
       </c>
-      <c r="BC15">
+      <c r="BE15">
         <v>0.775</v>
       </c>
     </row>
-    <row r="16" spans="1:55">
+    <row r="16" spans="1:57">
       <c r="A16" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B16" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C16">
         <v>92</v>
@@ -3151,123 +3247,129 @@
         <v>0.5348837209302325</v>
       </c>
       <c r="P16">
+        <v>16.143125</v>
+      </c>
+      <c r="Q16">
+        <v>0.50447265625</v>
+      </c>
+      <c r="R16">
         <v>0.5015625</v>
       </c>
-      <c r="Q16">
+      <c r="S16">
         <v>0.5034375</v>
       </c>
-      <c r="R16">
+      <c r="T16">
         <v>0.51171875</v>
       </c>
-      <c r="S16">
+      <c r="U16">
         <v>0.49953125</v>
       </c>
-      <c r="T16">
+      <c r="V16">
         <v>0.51</v>
       </c>
-      <c r="U16">
+      <c r="W16">
         <v>0.50515625</v>
       </c>
-      <c r="V16">
+      <c r="X16">
         <v>0.50328125</v>
       </c>
-      <c r="W16">
+      <c r="Y16">
         <v>0.50109375</v>
       </c>
-      <c r="X16">
+      <c r="Z16">
         <v>0.1592005813953463</v>
       </c>
-      <c r="Y16">
+      <c r="AA16">
         <v>0.004975018168604572</v>
       </c>
-      <c r="Z16">
+      <c r="AB16">
         <v>-0.01319040697674423</v>
       </c>
-      <c r="AA16">
+      <c r="AC16">
         <v>0.02853924418604648</v>
       </c>
-      <c r="AB16">
+      <c r="AD16">
         <v>0.01153706395348841</v>
       </c>
-      <c r="AC16">
+      <c r="AE16">
         <v>0.02081758720930238</v>
       </c>
-      <c r="AD16">
+      <c r="AF16">
         <v>-0.02162790697674422</v>
       </c>
-      <c r="AE16">
+      <c r="AG16">
         <v>-0.05166787790697674</v>
       </c>
-      <c r="AF16">
+      <c r="AH16">
         <v>0.0316024709302325</v>
       </c>
-      <c r="AG16">
+      <c r="AI16">
         <v>0.0337899709302325</v>
       </c>
-      <c r="AH16">
+      <c r="AJ16">
         <v>16.20194174757281</v>
       </c>
-      <c r="AI16">
+      <c r="AK16">
         <v>0.5063106796116504</v>
       </c>
-      <c r="AJ16">
+      <c r="AL16">
         <v>0.5072815533980582</v>
       </c>
-      <c r="AK16">
+      <c r="AM16">
         <v>0.5053398058252427</v>
       </c>
-      <c r="AL16">
+      <c r="AN16">
         <v>0.5101941747572816</v>
       </c>
-      <c r="AM16">
+      <c r="AO16">
         <v>0.4990291262135922</v>
       </c>
-      <c r="AN16">
+      <c r="AP16">
         <v>0.5063106796116504</v>
       </c>
-      <c r="AO16">
+      <c r="AQ16">
         <v>0.5121359223300971</v>
       </c>
-      <c r="AP16">
+      <c r="AR16">
         <v>0.5199029126213592</v>
       </c>
-      <c r="AQ16">
+      <c r="AS16">
         <v>0.4902912621359223</v>
       </c>
-      <c r="AR16">
+      <c r="AT16">
         <v>0.1003838338225336</v>
       </c>
-      <c r="AS16">
+      <c r="AU16">
         <v>0.003136994806954174</v>
       </c>
-      <c r="AT16">
+      <c r="AV16">
         <v>-0.01890946037480246</v>
       </c>
-      <c r="AU16">
+      <c r="AW16">
         <v>0.02663693836080372</v>
       </c>
-      <c r="AV16">
+      <c r="AX16">
         <v>0.01306163919620684</v>
       </c>
-      <c r="AW16">
+      <c r="AY16">
         <v>0.02131971099571012</v>
       </c>
-      <c r="AX16">
+      <c r="AZ16">
         <v>-0.01793858658839464</v>
       </c>
-      <c r="AY16">
+      <c r="BA16">
         <v>-0.05864755023707385</v>
       </c>
-      <c r="AZ16">
+      <c r="BB16">
         <v>0.01498080830887327</v>
       </c>
-      <c r="BA16">
+      <c r="BC16">
         <v>0.04459245879431017</v>
       </c>
-      <c r="BB16">
+      <c r="BD16">
         <v>66</v>
       </c>
-      <c r="BC16">
+      <c r="BE16">
         <v>0.7173913043478261</v>
       </c>
     </row>
